--- a/public/doc/pj/pembuktian_kualifikasi/rekapitulasi_kualifikasi.xlsx
+++ b/public/doc/pj/pembuktian_kualifikasi/rekapitulasi_kualifikasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\PJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/simpen/public/doc/pj/pembuktian_kualifikasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F787EC7-0A6D-4FEC-83F7-E0E84F61D5B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D44866-2F6B-9A4B-98BC-55D39AB65BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pembuktian Kualifikasi" sheetId="3" r:id="rId1"/>
@@ -20,10 +20,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Pembuktian Kualifikasi'!$A$1:$G$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Pembuktian Kualifikasi'!$1:$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -81,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -612,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -635,7 +645,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -733,7 +743,85 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -765,7 +853,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,84 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1243,570 +1253,570 @@
   <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="A10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="7" customWidth="1"/>
-    <col min="8" max="256" width="9.140625" style="7"/>
+    <col min="2" max="2" width="5.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="7" customWidth="1"/>
+    <col min="8" max="256" width="9.1640625" style="7"/>
     <col min="257" max="257" width="4" style="7" customWidth="1"/>
-    <col min="258" max="258" width="5.28515625" style="7" customWidth="1"/>
-    <col min="259" max="259" width="14.85546875" style="7" customWidth="1"/>
-    <col min="260" max="260" width="45.140625" style="7" customWidth="1"/>
-    <col min="261" max="261" width="28.28515625" style="7" customWidth="1"/>
-    <col min="262" max="262" width="13.7109375" style="7" customWidth="1"/>
-    <col min="263" max="263" width="19.85546875" style="7" customWidth="1"/>
-    <col min="264" max="512" width="9.140625" style="7"/>
+    <col min="258" max="258" width="5.33203125" style="7" customWidth="1"/>
+    <col min="259" max="259" width="14.83203125" style="7" customWidth="1"/>
+    <col min="260" max="260" width="45.1640625" style="7" customWidth="1"/>
+    <col min="261" max="261" width="28.33203125" style="7" customWidth="1"/>
+    <col min="262" max="262" width="13.6640625" style="7" customWidth="1"/>
+    <col min="263" max="263" width="19.83203125" style="7" customWidth="1"/>
+    <col min="264" max="512" width="9.1640625" style="7"/>
     <col min="513" max="513" width="4" style="7" customWidth="1"/>
-    <col min="514" max="514" width="5.28515625" style="7" customWidth="1"/>
-    <col min="515" max="515" width="14.85546875" style="7" customWidth="1"/>
-    <col min="516" max="516" width="45.140625" style="7" customWidth="1"/>
-    <col min="517" max="517" width="28.28515625" style="7" customWidth="1"/>
-    <col min="518" max="518" width="13.7109375" style="7" customWidth="1"/>
-    <col min="519" max="519" width="19.85546875" style="7" customWidth="1"/>
-    <col min="520" max="768" width="9.140625" style="7"/>
+    <col min="514" max="514" width="5.33203125" style="7" customWidth="1"/>
+    <col min="515" max="515" width="14.83203125" style="7" customWidth="1"/>
+    <col min="516" max="516" width="45.1640625" style="7" customWidth="1"/>
+    <col min="517" max="517" width="28.33203125" style="7" customWidth="1"/>
+    <col min="518" max="518" width="13.6640625" style="7" customWidth="1"/>
+    <col min="519" max="519" width="19.83203125" style="7" customWidth="1"/>
+    <col min="520" max="768" width="9.1640625" style="7"/>
     <col min="769" max="769" width="4" style="7" customWidth="1"/>
-    <col min="770" max="770" width="5.28515625" style="7" customWidth="1"/>
-    <col min="771" max="771" width="14.85546875" style="7" customWidth="1"/>
-    <col min="772" max="772" width="45.140625" style="7" customWidth="1"/>
-    <col min="773" max="773" width="28.28515625" style="7" customWidth="1"/>
-    <col min="774" max="774" width="13.7109375" style="7" customWidth="1"/>
-    <col min="775" max="775" width="19.85546875" style="7" customWidth="1"/>
-    <col min="776" max="1024" width="9.140625" style="7"/>
+    <col min="770" max="770" width="5.33203125" style="7" customWidth="1"/>
+    <col min="771" max="771" width="14.83203125" style="7" customWidth="1"/>
+    <col min="772" max="772" width="45.1640625" style="7" customWidth="1"/>
+    <col min="773" max="773" width="28.33203125" style="7" customWidth="1"/>
+    <col min="774" max="774" width="13.6640625" style="7" customWidth="1"/>
+    <col min="775" max="775" width="19.83203125" style="7" customWidth="1"/>
+    <col min="776" max="1024" width="9.1640625" style="7"/>
     <col min="1025" max="1025" width="4" style="7" customWidth="1"/>
-    <col min="1026" max="1026" width="5.28515625" style="7" customWidth="1"/>
-    <col min="1027" max="1027" width="14.85546875" style="7" customWidth="1"/>
-    <col min="1028" max="1028" width="45.140625" style="7" customWidth="1"/>
-    <col min="1029" max="1029" width="28.28515625" style="7" customWidth="1"/>
-    <col min="1030" max="1030" width="13.7109375" style="7" customWidth="1"/>
-    <col min="1031" max="1031" width="19.85546875" style="7" customWidth="1"/>
-    <col min="1032" max="1280" width="9.140625" style="7"/>
+    <col min="1026" max="1026" width="5.33203125" style="7" customWidth="1"/>
+    <col min="1027" max="1027" width="14.83203125" style="7" customWidth="1"/>
+    <col min="1028" max="1028" width="45.1640625" style="7" customWidth="1"/>
+    <col min="1029" max="1029" width="28.33203125" style="7" customWidth="1"/>
+    <col min="1030" max="1030" width="13.6640625" style="7" customWidth="1"/>
+    <col min="1031" max="1031" width="19.83203125" style="7" customWidth="1"/>
+    <col min="1032" max="1280" width="9.1640625" style="7"/>
     <col min="1281" max="1281" width="4" style="7" customWidth="1"/>
-    <col min="1282" max="1282" width="5.28515625" style="7" customWidth="1"/>
-    <col min="1283" max="1283" width="14.85546875" style="7" customWidth="1"/>
-    <col min="1284" max="1284" width="45.140625" style="7" customWidth="1"/>
-    <col min="1285" max="1285" width="28.28515625" style="7" customWidth="1"/>
-    <col min="1286" max="1286" width="13.7109375" style="7" customWidth="1"/>
-    <col min="1287" max="1287" width="19.85546875" style="7" customWidth="1"/>
-    <col min="1288" max="1536" width="9.140625" style="7"/>
+    <col min="1282" max="1282" width="5.33203125" style="7" customWidth="1"/>
+    <col min="1283" max="1283" width="14.83203125" style="7" customWidth="1"/>
+    <col min="1284" max="1284" width="45.1640625" style="7" customWidth="1"/>
+    <col min="1285" max="1285" width="28.33203125" style="7" customWidth="1"/>
+    <col min="1286" max="1286" width="13.6640625" style="7" customWidth="1"/>
+    <col min="1287" max="1287" width="19.83203125" style="7" customWidth="1"/>
+    <col min="1288" max="1536" width="9.1640625" style="7"/>
     <col min="1537" max="1537" width="4" style="7" customWidth="1"/>
-    <col min="1538" max="1538" width="5.28515625" style="7" customWidth="1"/>
-    <col min="1539" max="1539" width="14.85546875" style="7" customWidth="1"/>
-    <col min="1540" max="1540" width="45.140625" style="7" customWidth="1"/>
-    <col min="1541" max="1541" width="28.28515625" style="7" customWidth="1"/>
-    <col min="1542" max="1542" width="13.7109375" style="7" customWidth="1"/>
-    <col min="1543" max="1543" width="19.85546875" style="7" customWidth="1"/>
-    <col min="1544" max="1792" width="9.140625" style="7"/>
+    <col min="1538" max="1538" width="5.33203125" style="7" customWidth="1"/>
+    <col min="1539" max="1539" width="14.83203125" style="7" customWidth="1"/>
+    <col min="1540" max="1540" width="45.1640625" style="7" customWidth="1"/>
+    <col min="1541" max="1541" width="28.33203125" style="7" customWidth="1"/>
+    <col min="1542" max="1542" width="13.6640625" style="7" customWidth="1"/>
+    <col min="1543" max="1543" width="19.83203125" style="7" customWidth="1"/>
+    <col min="1544" max="1792" width="9.1640625" style="7"/>
     <col min="1793" max="1793" width="4" style="7" customWidth="1"/>
-    <col min="1794" max="1794" width="5.28515625" style="7" customWidth="1"/>
-    <col min="1795" max="1795" width="14.85546875" style="7" customWidth="1"/>
-    <col min="1796" max="1796" width="45.140625" style="7" customWidth="1"/>
-    <col min="1797" max="1797" width="28.28515625" style="7" customWidth="1"/>
-    <col min="1798" max="1798" width="13.7109375" style="7" customWidth="1"/>
-    <col min="1799" max="1799" width="19.85546875" style="7" customWidth="1"/>
-    <col min="1800" max="2048" width="9.140625" style="7"/>
+    <col min="1794" max="1794" width="5.33203125" style="7" customWidth="1"/>
+    <col min="1795" max="1795" width="14.83203125" style="7" customWidth="1"/>
+    <col min="1796" max="1796" width="45.1640625" style="7" customWidth="1"/>
+    <col min="1797" max="1797" width="28.33203125" style="7" customWidth="1"/>
+    <col min="1798" max="1798" width="13.6640625" style="7" customWidth="1"/>
+    <col min="1799" max="1799" width="19.83203125" style="7" customWidth="1"/>
+    <col min="1800" max="2048" width="9.1640625" style="7"/>
     <col min="2049" max="2049" width="4" style="7" customWidth="1"/>
-    <col min="2050" max="2050" width="5.28515625" style="7" customWidth="1"/>
-    <col min="2051" max="2051" width="14.85546875" style="7" customWidth="1"/>
-    <col min="2052" max="2052" width="45.140625" style="7" customWidth="1"/>
-    <col min="2053" max="2053" width="28.28515625" style="7" customWidth="1"/>
-    <col min="2054" max="2054" width="13.7109375" style="7" customWidth="1"/>
-    <col min="2055" max="2055" width="19.85546875" style="7" customWidth="1"/>
-    <col min="2056" max="2304" width="9.140625" style="7"/>
+    <col min="2050" max="2050" width="5.33203125" style="7" customWidth="1"/>
+    <col min="2051" max="2051" width="14.83203125" style="7" customWidth="1"/>
+    <col min="2052" max="2052" width="45.1640625" style="7" customWidth="1"/>
+    <col min="2053" max="2053" width="28.33203125" style="7" customWidth="1"/>
+    <col min="2054" max="2054" width="13.6640625" style="7" customWidth="1"/>
+    <col min="2055" max="2055" width="19.83203125" style="7" customWidth="1"/>
+    <col min="2056" max="2304" width="9.1640625" style="7"/>
     <col min="2305" max="2305" width="4" style="7" customWidth="1"/>
-    <col min="2306" max="2306" width="5.28515625" style="7" customWidth="1"/>
-    <col min="2307" max="2307" width="14.85546875" style="7" customWidth="1"/>
-    <col min="2308" max="2308" width="45.140625" style="7" customWidth="1"/>
-    <col min="2309" max="2309" width="28.28515625" style="7" customWidth="1"/>
-    <col min="2310" max="2310" width="13.7109375" style="7" customWidth="1"/>
-    <col min="2311" max="2311" width="19.85546875" style="7" customWidth="1"/>
-    <col min="2312" max="2560" width="9.140625" style="7"/>
+    <col min="2306" max="2306" width="5.33203125" style="7" customWidth="1"/>
+    <col min="2307" max="2307" width="14.83203125" style="7" customWidth="1"/>
+    <col min="2308" max="2308" width="45.1640625" style="7" customWidth="1"/>
+    <col min="2309" max="2309" width="28.33203125" style="7" customWidth="1"/>
+    <col min="2310" max="2310" width="13.6640625" style="7" customWidth="1"/>
+    <col min="2311" max="2311" width="19.83203125" style="7" customWidth="1"/>
+    <col min="2312" max="2560" width="9.1640625" style="7"/>
     <col min="2561" max="2561" width="4" style="7" customWidth="1"/>
-    <col min="2562" max="2562" width="5.28515625" style="7" customWidth="1"/>
-    <col min="2563" max="2563" width="14.85546875" style="7" customWidth="1"/>
-    <col min="2564" max="2564" width="45.140625" style="7" customWidth="1"/>
-    <col min="2565" max="2565" width="28.28515625" style="7" customWidth="1"/>
-    <col min="2566" max="2566" width="13.7109375" style="7" customWidth="1"/>
-    <col min="2567" max="2567" width="19.85546875" style="7" customWidth="1"/>
-    <col min="2568" max="2816" width="9.140625" style="7"/>
+    <col min="2562" max="2562" width="5.33203125" style="7" customWidth="1"/>
+    <col min="2563" max="2563" width="14.83203125" style="7" customWidth="1"/>
+    <col min="2564" max="2564" width="45.1640625" style="7" customWidth="1"/>
+    <col min="2565" max="2565" width="28.33203125" style="7" customWidth="1"/>
+    <col min="2566" max="2566" width="13.6640625" style="7" customWidth="1"/>
+    <col min="2567" max="2567" width="19.83203125" style="7" customWidth="1"/>
+    <col min="2568" max="2816" width="9.1640625" style="7"/>
     <col min="2817" max="2817" width="4" style="7" customWidth="1"/>
-    <col min="2818" max="2818" width="5.28515625" style="7" customWidth="1"/>
-    <col min="2819" max="2819" width="14.85546875" style="7" customWidth="1"/>
-    <col min="2820" max="2820" width="45.140625" style="7" customWidth="1"/>
-    <col min="2821" max="2821" width="28.28515625" style="7" customWidth="1"/>
-    <col min="2822" max="2822" width="13.7109375" style="7" customWidth="1"/>
-    <col min="2823" max="2823" width="19.85546875" style="7" customWidth="1"/>
-    <col min="2824" max="3072" width="9.140625" style="7"/>
+    <col min="2818" max="2818" width="5.33203125" style="7" customWidth="1"/>
+    <col min="2819" max="2819" width="14.83203125" style="7" customWidth="1"/>
+    <col min="2820" max="2820" width="45.1640625" style="7" customWidth="1"/>
+    <col min="2821" max="2821" width="28.33203125" style="7" customWidth="1"/>
+    <col min="2822" max="2822" width="13.6640625" style="7" customWidth="1"/>
+    <col min="2823" max="2823" width="19.83203125" style="7" customWidth="1"/>
+    <col min="2824" max="3072" width="9.1640625" style="7"/>
     <col min="3073" max="3073" width="4" style="7" customWidth="1"/>
-    <col min="3074" max="3074" width="5.28515625" style="7" customWidth="1"/>
-    <col min="3075" max="3075" width="14.85546875" style="7" customWidth="1"/>
-    <col min="3076" max="3076" width="45.140625" style="7" customWidth="1"/>
-    <col min="3077" max="3077" width="28.28515625" style="7" customWidth="1"/>
-    <col min="3078" max="3078" width="13.7109375" style="7" customWidth="1"/>
-    <col min="3079" max="3079" width="19.85546875" style="7" customWidth="1"/>
-    <col min="3080" max="3328" width="9.140625" style="7"/>
+    <col min="3074" max="3074" width="5.33203125" style="7" customWidth="1"/>
+    <col min="3075" max="3075" width="14.83203125" style="7" customWidth="1"/>
+    <col min="3076" max="3076" width="45.1640625" style="7" customWidth="1"/>
+    <col min="3077" max="3077" width="28.33203125" style="7" customWidth="1"/>
+    <col min="3078" max="3078" width="13.6640625" style="7" customWidth="1"/>
+    <col min="3079" max="3079" width="19.83203125" style="7" customWidth="1"/>
+    <col min="3080" max="3328" width="9.1640625" style="7"/>
     <col min="3329" max="3329" width="4" style="7" customWidth="1"/>
-    <col min="3330" max="3330" width="5.28515625" style="7" customWidth="1"/>
-    <col min="3331" max="3331" width="14.85546875" style="7" customWidth="1"/>
-    <col min="3332" max="3332" width="45.140625" style="7" customWidth="1"/>
-    <col min="3333" max="3333" width="28.28515625" style="7" customWidth="1"/>
-    <col min="3334" max="3334" width="13.7109375" style="7" customWidth="1"/>
-    <col min="3335" max="3335" width="19.85546875" style="7" customWidth="1"/>
-    <col min="3336" max="3584" width="9.140625" style="7"/>
+    <col min="3330" max="3330" width="5.33203125" style="7" customWidth="1"/>
+    <col min="3331" max="3331" width="14.83203125" style="7" customWidth="1"/>
+    <col min="3332" max="3332" width="45.1640625" style="7" customWidth="1"/>
+    <col min="3333" max="3333" width="28.33203125" style="7" customWidth="1"/>
+    <col min="3334" max="3334" width="13.6640625" style="7" customWidth="1"/>
+    <col min="3335" max="3335" width="19.83203125" style="7" customWidth="1"/>
+    <col min="3336" max="3584" width="9.1640625" style="7"/>
     <col min="3585" max="3585" width="4" style="7" customWidth="1"/>
-    <col min="3586" max="3586" width="5.28515625" style="7" customWidth="1"/>
-    <col min="3587" max="3587" width="14.85546875" style="7" customWidth="1"/>
-    <col min="3588" max="3588" width="45.140625" style="7" customWidth="1"/>
-    <col min="3589" max="3589" width="28.28515625" style="7" customWidth="1"/>
-    <col min="3590" max="3590" width="13.7109375" style="7" customWidth="1"/>
-    <col min="3591" max="3591" width="19.85546875" style="7" customWidth="1"/>
-    <col min="3592" max="3840" width="9.140625" style="7"/>
+    <col min="3586" max="3586" width="5.33203125" style="7" customWidth="1"/>
+    <col min="3587" max="3587" width="14.83203125" style="7" customWidth="1"/>
+    <col min="3588" max="3588" width="45.1640625" style="7" customWidth="1"/>
+    <col min="3589" max="3589" width="28.33203125" style="7" customWidth="1"/>
+    <col min="3590" max="3590" width="13.6640625" style="7" customWidth="1"/>
+    <col min="3591" max="3591" width="19.83203125" style="7" customWidth="1"/>
+    <col min="3592" max="3840" width="9.1640625" style="7"/>
     <col min="3841" max="3841" width="4" style="7" customWidth="1"/>
-    <col min="3842" max="3842" width="5.28515625" style="7" customWidth="1"/>
-    <col min="3843" max="3843" width="14.85546875" style="7" customWidth="1"/>
-    <col min="3844" max="3844" width="45.140625" style="7" customWidth="1"/>
-    <col min="3845" max="3845" width="28.28515625" style="7" customWidth="1"/>
-    <col min="3846" max="3846" width="13.7109375" style="7" customWidth="1"/>
-    <col min="3847" max="3847" width="19.85546875" style="7" customWidth="1"/>
-    <col min="3848" max="4096" width="9.140625" style="7"/>
+    <col min="3842" max="3842" width="5.33203125" style="7" customWidth="1"/>
+    <col min="3843" max="3843" width="14.83203125" style="7" customWidth="1"/>
+    <col min="3844" max="3844" width="45.1640625" style="7" customWidth="1"/>
+    <col min="3845" max="3845" width="28.33203125" style="7" customWidth="1"/>
+    <col min="3846" max="3846" width="13.6640625" style="7" customWidth="1"/>
+    <col min="3847" max="3847" width="19.83203125" style="7" customWidth="1"/>
+    <col min="3848" max="4096" width="9.1640625" style="7"/>
     <col min="4097" max="4097" width="4" style="7" customWidth="1"/>
-    <col min="4098" max="4098" width="5.28515625" style="7" customWidth="1"/>
-    <col min="4099" max="4099" width="14.85546875" style="7" customWidth="1"/>
-    <col min="4100" max="4100" width="45.140625" style="7" customWidth="1"/>
-    <col min="4101" max="4101" width="28.28515625" style="7" customWidth="1"/>
-    <col min="4102" max="4102" width="13.7109375" style="7" customWidth="1"/>
-    <col min="4103" max="4103" width="19.85546875" style="7" customWidth="1"/>
-    <col min="4104" max="4352" width="9.140625" style="7"/>
+    <col min="4098" max="4098" width="5.33203125" style="7" customWidth="1"/>
+    <col min="4099" max="4099" width="14.83203125" style="7" customWidth="1"/>
+    <col min="4100" max="4100" width="45.1640625" style="7" customWidth="1"/>
+    <col min="4101" max="4101" width="28.33203125" style="7" customWidth="1"/>
+    <col min="4102" max="4102" width="13.6640625" style="7" customWidth="1"/>
+    <col min="4103" max="4103" width="19.83203125" style="7" customWidth="1"/>
+    <col min="4104" max="4352" width="9.1640625" style="7"/>
     <col min="4353" max="4353" width="4" style="7" customWidth="1"/>
-    <col min="4354" max="4354" width="5.28515625" style="7" customWidth="1"/>
-    <col min="4355" max="4355" width="14.85546875" style="7" customWidth="1"/>
-    <col min="4356" max="4356" width="45.140625" style="7" customWidth="1"/>
-    <col min="4357" max="4357" width="28.28515625" style="7" customWidth="1"/>
-    <col min="4358" max="4358" width="13.7109375" style="7" customWidth="1"/>
-    <col min="4359" max="4359" width="19.85546875" style="7" customWidth="1"/>
-    <col min="4360" max="4608" width="9.140625" style="7"/>
+    <col min="4354" max="4354" width="5.33203125" style="7" customWidth="1"/>
+    <col min="4355" max="4355" width="14.83203125" style="7" customWidth="1"/>
+    <col min="4356" max="4356" width="45.1640625" style="7" customWidth="1"/>
+    <col min="4357" max="4357" width="28.33203125" style="7" customWidth="1"/>
+    <col min="4358" max="4358" width="13.6640625" style="7" customWidth="1"/>
+    <col min="4359" max="4359" width="19.83203125" style="7" customWidth="1"/>
+    <col min="4360" max="4608" width="9.1640625" style="7"/>
     <col min="4609" max="4609" width="4" style="7" customWidth="1"/>
-    <col min="4610" max="4610" width="5.28515625" style="7" customWidth="1"/>
-    <col min="4611" max="4611" width="14.85546875" style="7" customWidth="1"/>
-    <col min="4612" max="4612" width="45.140625" style="7" customWidth="1"/>
-    <col min="4613" max="4613" width="28.28515625" style="7" customWidth="1"/>
-    <col min="4614" max="4614" width="13.7109375" style="7" customWidth="1"/>
-    <col min="4615" max="4615" width="19.85546875" style="7" customWidth="1"/>
-    <col min="4616" max="4864" width="9.140625" style="7"/>
+    <col min="4610" max="4610" width="5.33203125" style="7" customWidth="1"/>
+    <col min="4611" max="4611" width="14.83203125" style="7" customWidth="1"/>
+    <col min="4612" max="4612" width="45.1640625" style="7" customWidth="1"/>
+    <col min="4613" max="4613" width="28.33203125" style="7" customWidth="1"/>
+    <col min="4614" max="4614" width="13.6640625" style="7" customWidth="1"/>
+    <col min="4615" max="4615" width="19.83203125" style="7" customWidth="1"/>
+    <col min="4616" max="4864" width="9.1640625" style="7"/>
     <col min="4865" max="4865" width="4" style="7" customWidth="1"/>
-    <col min="4866" max="4866" width="5.28515625" style="7" customWidth="1"/>
-    <col min="4867" max="4867" width="14.85546875" style="7" customWidth="1"/>
-    <col min="4868" max="4868" width="45.140625" style="7" customWidth="1"/>
-    <col min="4869" max="4869" width="28.28515625" style="7" customWidth="1"/>
-    <col min="4870" max="4870" width="13.7109375" style="7" customWidth="1"/>
-    <col min="4871" max="4871" width="19.85546875" style="7" customWidth="1"/>
-    <col min="4872" max="5120" width="9.140625" style="7"/>
+    <col min="4866" max="4866" width="5.33203125" style="7" customWidth="1"/>
+    <col min="4867" max="4867" width="14.83203125" style="7" customWidth="1"/>
+    <col min="4868" max="4868" width="45.1640625" style="7" customWidth="1"/>
+    <col min="4869" max="4869" width="28.33203125" style="7" customWidth="1"/>
+    <col min="4870" max="4870" width="13.6640625" style="7" customWidth="1"/>
+    <col min="4871" max="4871" width="19.83203125" style="7" customWidth="1"/>
+    <col min="4872" max="5120" width="9.1640625" style="7"/>
     <col min="5121" max="5121" width="4" style="7" customWidth="1"/>
-    <col min="5122" max="5122" width="5.28515625" style="7" customWidth="1"/>
-    <col min="5123" max="5123" width="14.85546875" style="7" customWidth="1"/>
-    <col min="5124" max="5124" width="45.140625" style="7" customWidth="1"/>
-    <col min="5125" max="5125" width="28.28515625" style="7" customWidth="1"/>
-    <col min="5126" max="5126" width="13.7109375" style="7" customWidth="1"/>
-    <col min="5127" max="5127" width="19.85546875" style="7" customWidth="1"/>
-    <col min="5128" max="5376" width="9.140625" style="7"/>
+    <col min="5122" max="5122" width="5.33203125" style="7" customWidth="1"/>
+    <col min="5123" max="5123" width="14.83203125" style="7" customWidth="1"/>
+    <col min="5124" max="5124" width="45.1640625" style="7" customWidth="1"/>
+    <col min="5125" max="5125" width="28.33203125" style="7" customWidth="1"/>
+    <col min="5126" max="5126" width="13.6640625" style="7" customWidth="1"/>
+    <col min="5127" max="5127" width="19.83203125" style="7" customWidth="1"/>
+    <col min="5128" max="5376" width="9.1640625" style="7"/>
     <col min="5377" max="5377" width="4" style="7" customWidth="1"/>
-    <col min="5378" max="5378" width="5.28515625" style="7" customWidth="1"/>
-    <col min="5379" max="5379" width="14.85546875" style="7" customWidth="1"/>
-    <col min="5380" max="5380" width="45.140625" style="7" customWidth="1"/>
-    <col min="5381" max="5381" width="28.28515625" style="7" customWidth="1"/>
-    <col min="5382" max="5382" width="13.7109375" style="7" customWidth="1"/>
-    <col min="5383" max="5383" width="19.85546875" style="7" customWidth="1"/>
-    <col min="5384" max="5632" width="9.140625" style="7"/>
+    <col min="5378" max="5378" width="5.33203125" style="7" customWidth="1"/>
+    <col min="5379" max="5379" width="14.83203125" style="7" customWidth="1"/>
+    <col min="5380" max="5380" width="45.1640625" style="7" customWidth="1"/>
+    <col min="5381" max="5381" width="28.33203125" style="7" customWidth="1"/>
+    <col min="5382" max="5382" width="13.6640625" style="7" customWidth="1"/>
+    <col min="5383" max="5383" width="19.83203125" style="7" customWidth="1"/>
+    <col min="5384" max="5632" width="9.1640625" style="7"/>
     <col min="5633" max="5633" width="4" style="7" customWidth="1"/>
-    <col min="5634" max="5634" width="5.28515625" style="7" customWidth="1"/>
-    <col min="5635" max="5635" width="14.85546875" style="7" customWidth="1"/>
-    <col min="5636" max="5636" width="45.140625" style="7" customWidth="1"/>
-    <col min="5637" max="5637" width="28.28515625" style="7" customWidth="1"/>
-    <col min="5638" max="5638" width="13.7109375" style="7" customWidth="1"/>
-    <col min="5639" max="5639" width="19.85546875" style="7" customWidth="1"/>
-    <col min="5640" max="5888" width="9.140625" style="7"/>
+    <col min="5634" max="5634" width="5.33203125" style="7" customWidth="1"/>
+    <col min="5635" max="5635" width="14.83203125" style="7" customWidth="1"/>
+    <col min="5636" max="5636" width="45.1640625" style="7" customWidth="1"/>
+    <col min="5637" max="5637" width="28.33203125" style="7" customWidth="1"/>
+    <col min="5638" max="5638" width="13.6640625" style="7" customWidth="1"/>
+    <col min="5639" max="5639" width="19.83203125" style="7" customWidth="1"/>
+    <col min="5640" max="5888" width="9.1640625" style="7"/>
     <col min="5889" max="5889" width="4" style="7" customWidth="1"/>
-    <col min="5890" max="5890" width="5.28515625" style="7" customWidth="1"/>
-    <col min="5891" max="5891" width="14.85546875" style="7" customWidth="1"/>
-    <col min="5892" max="5892" width="45.140625" style="7" customWidth="1"/>
-    <col min="5893" max="5893" width="28.28515625" style="7" customWidth="1"/>
-    <col min="5894" max="5894" width="13.7109375" style="7" customWidth="1"/>
-    <col min="5895" max="5895" width="19.85546875" style="7" customWidth="1"/>
-    <col min="5896" max="6144" width="9.140625" style="7"/>
+    <col min="5890" max="5890" width="5.33203125" style="7" customWidth="1"/>
+    <col min="5891" max="5891" width="14.83203125" style="7" customWidth="1"/>
+    <col min="5892" max="5892" width="45.1640625" style="7" customWidth="1"/>
+    <col min="5893" max="5893" width="28.33203125" style="7" customWidth="1"/>
+    <col min="5894" max="5894" width="13.6640625" style="7" customWidth="1"/>
+    <col min="5895" max="5895" width="19.83203125" style="7" customWidth="1"/>
+    <col min="5896" max="6144" width="9.1640625" style="7"/>
     <col min="6145" max="6145" width="4" style="7" customWidth="1"/>
-    <col min="6146" max="6146" width="5.28515625" style="7" customWidth="1"/>
-    <col min="6147" max="6147" width="14.85546875" style="7" customWidth="1"/>
-    <col min="6148" max="6148" width="45.140625" style="7" customWidth="1"/>
-    <col min="6149" max="6149" width="28.28515625" style="7" customWidth="1"/>
-    <col min="6150" max="6150" width="13.7109375" style="7" customWidth="1"/>
-    <col min="6151" max="6151" width="19.85546875" style="7" customWidth="1"/>
-    <col min="6152" max="6400" width="9.140625" style="7"/>
+    <col min="6146" max="6146" width="5.33203125" style="7" customWidth="1"/>
+    <col min="6147" max="6147" width="14.83203125" style="7" customWidth="1"/>
+    <col min="6148" max="6148" width="45.1640625" style="7" customWidth="1"/>
+    <col min="6149" max="6149" width="28.33203125" style="7" customWidth="1"/>
+    <col min="6150" max="6150" width="13.6640625" style="7" customWidth="1"/>
+    <col min="6151" max="6151" width="19.83203125" style="7" customWidth="1"/>
+    <col min="6152" max="6400" width="9.1640625" style="7"/>
     <col min="6401" max="6401" width="4" style="7" customWidth="1"/>
-    <col min="6402" max="6402" width="5.28515625" style="7" customWidth="1"/>
-    <col min="6403" max="6403" width="14.85546875" style="7" customWidth="1"/>
-    <col min="6404" max="6404" width="45.140625" style="7" customWidth="1"/>
-    <col min="6405" max="6405" width="28.28515625" style="7" customWidth="1"/>
-    <col min="6406" max="6406" width="13.7109375" style="7" customWidth="1"/>
-    <col min="6407" max="6407" width="19.85546875" style="7" customWidth="1"/>
-    <col min="6408" max="6656" width="9.140625" style="7"/>
+    <col min="6402" max="6402" width="5.33203125" style="7" customWidth="1"/>
+    <col min="6403" max="6403" width="14.83203125" style="7" customWidth="1"/>
+    <col min="6404" max="6404" width="45.1640625" style="7" customWidth="1"/>
+    <col min="6405" max="6405" width="28.33203125" style="7" customWidth="1"/>
+    <col min="6406" max="6406" width="13.6640625" style="7" customWidth="1"/>
+    <col min="6407" max="6407" width="19.83203125" style="7" customWidth="1"/>
+    <col min="6408" max="6656" width="9.1640625" style="7"/>
     <col min="6657" max="6657" width="4" style="7" customWidth="1"/>
-    <col min="6658" max="6658" width="5.28515625" style="7" customWidth="1"/>
-    <col min="6659" max="6659" width="14.85546875" style="7" customWidth="1"/>
-    <col min="6660" max="6660" width="45.140625" style="7" customWidth="1"/>
-    <col min="6661" max="6661" width="28.28515625" style="7" customWidth="1"/>
-    <col min="6662" max="6662" width="13.7109375" style="7" customWidth="1"/>
-    <col min="6663" max="6663" width="19.85546875" style="7" customWidth="1"/>
-    <col min="6664" max="6912" width="9.140625" style="7"/>
+    <col min="6658" max="6658" width="5.33203125" style="7" customWidth="1"/>
+    <col min="6659" max="6659" width="14.83203125" style="7" customWidth="1"/>
+    <col min="6660" max="6660" width="45.1640625" style="7" customWidth="1"/>
+    <col min="6661" max="6661" width="28.33203125" style="7" customWidth="1"/>
+    <col min="6662" max="6662" width="13.6640625" style="7" customWidth="1"/>
+    <col min="6663" max="6663" width="19.83203125" style="7" customWidth="1"/>
+    <col min="6664" max="6912" width="9.1640625" style="7"/>
     <col min="6913" max="6913" width="4" style="7" customWidth="1"/>
-    <col min="6914" max="6914" width="5.28515625" style="7" customWidth="1"/>
-    <col min="6915" max="6915" width="14.85546875" style="7" customWidth="1"/>
-    <col min="6916" max="6916" width="45.140625" style="7" customWidth="1"/>
-    <col min="6917" max="6917" width="28.28515625" style="7" customWidth="1"/>
-    <col min="6918" max="6918" width="13.7109375" style="7" customWidth="1"/>
-    <col min="6919" max="6919" width="19.85546875" style="7" customWidth="1"/>
-    <col min="6920" max="7168" width="9.140625" style="7"/>
+    <col min="6914" max="6914" width="5.33203125" style="7" customWidth="1"/>
+    <col min="6915" max="6915" width="14.83203125" style="7" customWidth="1"/>
+    <col min="6916" max="6916" width="45.1640625" style="7" customWidth="1"/>
+    <col min="6917" max="6917" width="28.33203125" style="7" customWidth="1"/>
+    <col min="6918" max="6918" width="13.6640625" style="7" customWidth="1"/>
+    <col min="6919" max="6919" width="19.83203125" style="7" customWidth="1"/>
+    <col min="6920" max="7168" width="9.1640625" style="7"/>
     <col min="7169" max="7169" width="4" style="7" customWidth="1"/>
-    <col min="7170" max="7170" width="5.28515625" style="7" customWidth="1"/>
-    <col min="7171" max="7171" width="14.85546875" style="7" customWidth="1"/>
-    <col min="7172" max="7172" width="45.140625" style="7" customWidth="1"/>
-    <col min="7173" max="7173" width="28.28515625" style="7" customWidth="1"/>
-    <col min="7174" max="7174" width="13.7109375" style="7" customWidth="1"/>
-    <col min="7175" max="7175" width="19.85546875" style="7" customWidth="1"/>
-    <col min="7176" max="7424" width="9.140625" style="7"/>
+    <col min="7170" max="7170" width="5.33203125" style="7" customWidth="1"/>
+    <col min="7171" max="7171" width="14.83203125" style="7" customWidth="1"/>
+    <col min="7172" max="7172" width="45.1640625" style="7" customWidth="1"/>
+    <col min="7173" max="7173" width="28.33203125" style="7" customWidth="1"/>
+    <col min="7174" max="7174" width="13.6640625" style="7" customWidth="1"/>
+    <col min="7175" max="7175" width="19.83203125" style="7" customWidth="1"/>
+    <col min="7176" max="7424" width="9.1640625" style="7"/>
     <col min="7425" max="7425" width="4" style="7" customWidth="1"/>
-    <col min="7426" max="7426" width="5.28515625" style="7" customWidth="1"/>
-    <col min="7427" max="7427" width="14.85546875" style="7" customWidth="1"/>
-    <col min="7428" max="7428" width="45.140625" style="7" customWidth="1"/>
-    <col min="7429" max="7429" width="28.28515625" style="7" customWidth="1"/>
-    <col min="7430" max="7430" width="13.7109375" style="7" customWidth="1"/>
-    <col min="7431" max="7431" width="19.85546875" style="7" customWidth="1"/>
-    <col min="7432" max="7680" width="9.140625" style="7"/>
+    <col min="7426" max="7426" width="5.33203125" style="7" customWidth="1"/>
+    <col min="7427" max="7427" width="14.83203125" style="7" customWidth="1"/>
+    <col min="7428" max="7428" width="45.1640625" style="7" customWidth="1"/>
+    <col min="7429" max="7429" width="28.33203125" style="7" customWidth="1"/>
+    <col min="7430" max="7430" width="13.6640625" style="7" customWidth="1"/>
+    <col min="7431" max="7431" width="19.83203125" style="7" customWidth="1"/>
+    <col min="7432" max="7680" width="9.1640625" style="7"/>
     <col min="7681" max="7681" width="4" style="7" customWidth="1"/>
-    <col min="7682" max="7682" width="5.28515625" style="7" customWidth="1"/>
-    <col min="7683" max="7683" width="14.85546875" style="7" customWidth="1"/>
-    <col min="7684" max="7684" width="45.140625" style="7" customWidth="1"/>
-    <col min="7685" max="7685" width="28.28515625" style="7" customWidth="1"/>
-    <col min="7686" max="7686" width="13.7109375" style="7" customWidth="1"/>
-    <col min="7687" max="7687" width="19.85546875" style="7" customWidth="1"/>
-    <col min="7688" max="7936" width="9.140625" style="7"/>
+    <col min="7682" max="7682" width="5.33203125" style="7" customWidth="1"/>
+    <col min="7683" max="7683" width="14.83203125" style="7" customWidth="1"/>
+    <col min="7684" max="7684" width="45.1640625" style="7" customWidth="1"/>
+    <col min="7685" max="7685" width="28.33203125" style="7" customWidth="1"/>
+    <col min="7686" max="7686" width="13.6640625" style="7" customWidth="1"/>
+    <col min="7687" max="7687" width="19.83203125" style="7" customWidth="1"/>
+    <col min="7688" max="7936" width="9.1640625" style="7"/>
     <col min="7937" max="7937" width="4" style="7" customWidth="1"/>
-    <col min="7938" max="7938" width="5.28515625" style="7" customWidth="1"/>
-    <col min="7939" max="7939" width="14.85546875" style="7" customWidth="1"/>
-    <col min="7940" max="7940" width="45.140625" style="7" customWidth="1"/>
-    <col min="7941" max="7941" width="28.28515625" style="7" customWidth="1"/>
-    <col min="7942" max="7942" width="13.7109375" style="7" customWidth="1"/>
-    <col min="7943" max="7943" width="19.85546875" style="7" customWidth="1"/>
-    <col min="7944" max="8192" width="9.140625" style="7"/>
+    <col min="7938" max="7938" width="5.33203125" style="7" customWidth="1"/>
+    <col min="7939" max="7939" width="14.83203125" style="7" customWidth="1"/>
+    <col min="7940" max="7940" width="45.1640625" style="7" customWidth="1"/>
+    <col min="7941" max="7941" width="28.33203125" style="7" customWidth="1"/>
+    <col min="7942" max="7942" width="13.6640625" style="7" customWidth="1"/>
+    <col min="7943" max="7943" width="19.83203125" style="7" customWidth="1"/>
+    <col min="7944" max="8192" width="9.1640625" style="7"/>
     <col min="8193" max="8193" width="4" style="7" customWidth="1"/>
-    <col min="8194" max="8194" width="5.28515625" style="7" customWidth="1"/>
-    <col min="8195" max="8195" width="14.85546875" style="7" customWidth="1"/>
-    <col min="8196" max="8196" width="45.140625" style="7" customWidth="1"/>
-    <col min="8197" max="8197" width="28.28515625" style="7" customWidth="1"/>
-    <col min="8198" max="8198" width="13.7109375" style="7" customWidth="1"/>
-    <col min="8199" max="8199" width="19.85546875" style="7" customWidth="1"/>
-    <col min="8200" max="8448" width="9.140625" style="7"/>
+    <col min="8194" max="8194" width="5.33203125" style="7" customWidth="1"/>
+    <col min="8195" max="8195" width="14.83203125" style="7" customWidth="1"/>
+    <col min="8196" max="8196" width="45.1640625" style="7" customWidth="1"/>
+    <col min="8197" max="8197" width="28.33203125" style="7" customWidth="1"/>
+    <col min="8198" max="8198" width="13.6640625" style="7" customWidth="1"/>
+    <col min="8199" max="8199" width="19.83203125" style="7" customWidth="1"/>
+    <col min="8200" max="8448" width="9.1640625" style="7"/>
     <col min="8449" max="8449" width="4" style="7" customWidth="1"/>
-    <col min="8450" max="8450" width="5.28515625" style="7" customWidth="1"/>
-    <col min="8451" max="8451" width="14.85546875" style="7" customWidth="1"/>
-    <col min="8452" max="8452" width="45.140625" style="7" customWidth="1"/>
-    <col min="8453" max="8453" width="28.28515625" style="7" customWidth="1"/>
-    <col min="8454" max="8454" width="13.7109375" style="7" customWidth="1"/>
-    <col min="8455" max="8455" width="19.85546875" style="7" customWidth="1"/>
-    <col min="8456" max="8704" width="9.140625" style="7"/>
+    <col min="8450" max="8450" width="5.33203125" style="7" customWidth="1"/>
+    <col min="8451" max="8451" width="14.83203125" style="7" customWidth="1"/>
+    <col min="8452" max="8452" width="45.1640625" style="7" customWidth="1"/>
+    <col min="8453" max="8453" width="28.33203125" style="7" customWidth="1"/>
+    <col min="8454" max="8454" width="13.6640625" style="7" customWidth="1"/>
+    <col min="8455" max="8455" width="19.83203125" style="7" customWidth="1"/>
+    <col min="8456" max="8704" width="9.1640625" style="7"/>
     <col min="8705" max="8705" width="4" style="7" customWidth="1"/>
-    <col min="8706" max="8706" width="5.28515625" style="7" customWidth="1"/>
-    <col min="8707" max="8707" width="14.85546875" style="7" customWidth="1"/>
-    <col min="8708" max="8708" width="45.140625" style="7" customWidth="1"/>
-    <col min="8709" max="8709" width="28.28515625" style="7" customWidth="1"/>
-    <col min="8710" max="8710" width="13.7109375" style="7" customWidth="1"/>
-    <col min="8711" max="8711" width="19.85546875" style="7" customWidth="1"/>
-    <col min="8712" max="8960" width="9.140625" style="7"/>
+    <col min="8706" max="8706" width="5.33203125" style="7" customWidth="1"/>
+    <col min="8707" max="8707" width="14.83203125" style="7" customWidth="1"/>
+    <col min="8708" max="8708" width="45.1640625" style="7" customWidth="1"/>
+    <col min="8709" max="8709" width="28.33203125" style="7" customWidth="1"/>
+    <col min="8710" max="8710" width="13.6640625" style="7" customWidth="1"/>
+    <col min="8711" max="8711" width="19.83203125" style="7" customWidth="1"/>
+    <col min="8712" max="8960" width="9.1640625" style="7"/>
     <col min="8961" max="8961" width="4" style="7" customWidth="1"/>
-    <col min="8962" max="8962" width="5.28515625" style="7" customWidth="1"/>
-    <col min="8963" max="8963" width="14.85546875" style="7" customWidth="1"/>
-    <col min="8964" max="8964" width="45.140625" style="7" customWidth="1"/>
-    <col min="8965" max="8965" width="28.28515625" style="7" customWidth="1"/>
-    <col min="8966" max="8966" width="13.7109375" style="7" customWidth="1"/>
-    <col min="8967" max="8967" width="19.85546875" style="7" customWidth="1"/>
-    <col min="8968" max="9216" width="9.140625" style="7"/>
+    <col min="8962" max="8962" width="5.33203125" style="7" customWidth="1"/>
+    <col min="8963" max="8963" width="14.83203125" style="7" customWidth="1"/>
+    <col min="8964" max="8964" width="45.1640625" style="7" customWidth="1"/>
+    <col min="8965" max="8965" width="28.33203125" style="7" customWidth="1"/>
+    <col min="8966" max="8966" width="13.6640625" style="7" customWidth="1"/>
+    <col min="8967" max="8967" width="19.83203125" style="7" customWidth="1"/>
+    <col min="8968" max="9216" width="9.1640625" style="7"/>
     <col min="9217" max="9217" width="4" style="7" customWidth="1"/>
-    <col min="9218" max="9218" width="5.28515625" style="7" customWidth="1"/>
-    <col min="9219" max="9219" width="14.85546875" style="7" customWidth="1"/>
-    <col min="9220" max="9220" width="45.140625" style="7" customWidth="1"/>
-    <col min="9221" max="9221" width="28.28515625" style="7" customWidth="1"/>
-    <col min="9222" max="9222" width="13.7109375" style="7" customWidth="1"/>
-    <col min="9223" max="9223" width="19.85546875" style="7" customWidth="1"/>
-    <col min="9224" max="9472" width="9.140625" style="7"/>
+    <col min="9218" max="9218" width="5.33203125" style="7" customWidth="1"/>
+    <col min="9219" max="9219" width="14.83203125" style="7" customWidth="1"/>
+    <col min="9220" max="9220" width="45.1640625" style="7" customWidth="1"/>
+    <col min="9221" max="9221" width="28.33203125" style="7" customWidth="1"/>
+    <col min="9222" max="9222" width="13.6640625" style="7" customWidth="1"/>
+    <col min="9223" max="9223" width="19.83203125" style="7" customWidth="1"/>
+    <col min="9224" max="9472" width="9.1640625" style="7"/>
     <col min="9473" max="9473" width="4" style="7" customWidth="1"/>
-    <col min="9474" max="9474" width="5.28515625" style="7" customWidth="1"/>
-    <col min="9475" max="9475" width="14.85546875" style="7" customWidth="1"/>
-    <col min="9476" max="9476" width="45.140625" style="7" customWidth="1"/>
-    <col min="9477" max="9477" width="28.28515625" style="7" customWidth="1"/>
-    <col min="9478" max="9478" width="13.7109375" style="7" customWidth="1"/>
-    <col min="9479" max="9479" width="19.85546875" style="7" customWidth="1"/>
-    <col min="9480" max="9728" width="9.140625" style="7"/>
+    <col min="9474" max="9474" width="5.33203125" style="7" customWidth="1"/>
+    <col min="9475" max="9475" width="14.83203125" style="7" customWidth="1"/>
+    <col min="9476" max="9476" width="45.1640625" style="7" customWidth="1"/>
+    <col min="9477" max="9477" width="28.33203125" style="7" customWidth="1"/>
+    <col min="9478" max="9478" width="13.6640625" style="7" customWidth="1"/>
+    <col min="9479" max="9479" width="19.83203125" style="7" customWidth="1"/>
+    <col min="9480" max="9728" width="9.1640625" style="7"/>
     <col min="9729" max="9729" width="4" style="7" customWidth="1"/>
-    <col min="9730" max="9730" width="5.28515625" style="7" customWidth="1"/>
-    <col min="9731" max="9731" width="14.85546875" style="7" customWidth="1"/>
-    <col min="9732" max="9732" width="45.140625" style="7" customWidth="1"/>
-    <col min="9733" max="9733" width="28.28515625" style="7" customWidth="1"/>
-    <col min="9734" max="9734" width="13.7109375" style="7" customWidth="1"/>
-    <col min="9735" max="9735" width="19.85546875" style="7" customWidth="1"/>
-    <col min="9736" max="9984" width="9.140625" style="7"/>
+    <col min="9730" max="9730" width="5.33203125" style="7" customWidth="1"/>
+    <col min="9731" max="9731" width="14.83203125" style="7" customWidth="1"/>
+    <col min="9732" max="9732" width="45.1640625" style="7" customWidth="1"/>
+    <col min="9733" max="9733" width="28.33203125" style="7" customWidth="1"/>
+    <col min="9734" max="9734" width="13.6640625" style="7" customWidth="1"/>
+    <col min="9735" max="9735" width="19.83203125" style="7" customWidth="1"/>
+    <col min="9736" max="9984" width="9.1640625" style="7"/>
     <col min="9985" max="9985" width="4" style="7" customWidth="1"/>
-    <col min="9986" max="9986" width="5.28515625" style="7" customWidth="1"/>
-    <col min="9987" max="9987" width="14.85546875" style="7" customWidth="1"/>
-    <col min="9988" max="9988" width="45.140625" style="7" customWidth="1"/>
-    <col min="9989" max="9989" width="28.28515625" style="7" customWidth="1"/>
-    <col min="9990" max="9990" width="13.7109375" style="7" customWidth="1"/>
-    <col min="9991" max="9991" width="19.85546875" style="7" customWidth="1"/>
-    <col min="9992" max="10240" width="9.140625" style="7"/>
+    <col min="9986" max="9986" width="5.33203125" style="7" customWidth="1"/>
+    <col min="9987" max="9987" width="14.83203125" style="7" customWidth="1"/>
+    <col min="9988" max="9988" width="45.1640625" style="7" customWidth="1"/>
+    <col min="9989" max="9989" width="28.33203125" style="7" customWidth="1"/>
+    <col min="9990" max="9990" width="13.6640625" style="7" customWidth="1"/>
+    <col min="9991" max="9991" width="19.83203125" style="7" customWidth="1"/>
+    <col min="9992" max="10240" width="9.1640625" style="7"/>
     <col min="10241" max="10241" width="4" style="7" customWidth="1"/>
-    <col min="10242" max="10242" width="5.28515625" style="7" customWidth="1"/>
-    <col min="10243" max="10243" width="14.85546875" style="7" customWidth="1"/>
-    <col min="10244" max="10244" width="45.140625" style="7" customWidth="1"/>
-    <col min="10245" max="10245" width="28.28515625" style="7" customWidth="1"/>
-    <col min="10246" max="10246" width="13.7109375" style="7" customWidth="1"/>
-    <col min="10247" max="10247" width="19.85546875" style="7" customWidth="1"/>
-    <col min="10248" max="10496" width="9.140625" style="7"/>
+    <col min="10242" max="10242" width="5.33203125" style="7" customWidth="1"/>
+    <col min="10243" max="10243" width="14.83203125" style="7" customWidth="1"/>
+    <col min="10244" max="10244" width="45.1640625" style="7" customWidth="1"/>
+    <col min="10245" max="10245" width="28.33203125" style="7" customWidth="1"/>
+    <col min="10246" max="10246" width="13.6640625" style="7" customWidth="1"/>
+    <col min="10247" max="10247" width="19.83203125" style="7" customWidth="1"/>
+    <col min="10248" max="10496" width="9.1640625" style="7"/>
     <col min="10497" max="10497" width="4" style="7" customWidth="1"/>
-    <col min="10498" max="10498" width="5.28515625" style="7" customWidth="1"/>
-    <col min="10499" max="10499" width="14.85546875" style="7" customWidth="1"/>
-    <col min="10500" max="10500" width="45.140625" style="7" customWidth="1"/>
-    <col min="10501" max="10501" width="28.28515625" style="7" customWidth="1"/>
-    <col min="10502" max="10502" width="13.7109375" style="7" customWidth="1"/>
-    <col min="10503" max="10503" width="19.85546875" style="7" customWidth="1"/>
-    <col min="10504" max="10752" width="9.140625" style="7"/>
+    <col min="10498" max="10498" width="5.33203125" style="7" customWidth="1"/>
+    <col min="10499" max="10499" width="14.83203125" style="7" customWidth="1"/>
+    <col min="10500" max="10500" width="45.1640625" style="7" customWidth="1"/>
+    <col min="10501" max="10501" width="28.33203125" style="7" customWidth="1"/>
+    <col min="10502" max="10502" width="13.6640625" style="7" customWidth="1"/>
+    <col min="10503" max="10503" width="19.83203125" style="7" customWidth="1"/>
+    <col min="10504" max="10752" width="9.1640625" style="7"/>
     <col min="10753" max="10753" width="4" style="7" customWidth="1"/>
-    <col min="10754" max="10754" width="5.28515625" style="7" customWidth="1"/>
-    <col min="10755" max="10755" width="14.85546875" style="7" customWidth="1"/>
-    <col min="10756" max="10756" width="45.140625" style="7" customWidth="1"/>
-    <col min="10757" max="10757" width="28.28515625" style="7" customWidth="1"/>
-    <col min="10758" max="10758" width="13.7109375" style="7" customWidth="1"/>
-    <col min="10759" max="10759" width="19.85546875" style="7" customWidth="1"/>
-    <col min="10760" max="11008" width="9.140625" style="7"/>
+    <col min="10754" max="10754" width="5.33203125" style="7" customWidth="1"/>
+    <col min="10755" max="10755" width="14.83203125" style="7" customWidth="1"/>
+    <col min="10756" max="10756" width="45.1640625" style="7" customWidth="1"/>
+    <col min="10757" max="10757" width="28.33203125" style="7" customWidth="1"/>
+    <col min="10758" max="10758" width="13.6640625" style="7" customWidth="1"/>
+    <col min="10759" max="10759" width="19.83203125" style="7" customWidth="1"/>
+    <col min="10760" max="11008" width="9.1640625" style="7"/>
     <col min="11009" max="11009" width="4" style="7" customWidth="1"/>
-    <col min="11010" max="11010" width="5.28515625" style="7" customWidth="1"/>
-    <col min="11011" max="11011" width="14.85546875" style="7" customWidth="1"/>
-    <col min="11012" max="11012" width="45.140625" style="7" customWidth="1"/>
-    <col min="11013" max="11013" width="28.28515625" style="7" customWidth="1"/>
-    <col min="11014" max="11014" width="13.7109375" style="7" customWidth="1"/>
-    <col min="11015" max="11015" width="19.85546875" style="7" customWidth="1"/>
-    <col min="11016" max="11264" width="9.140625" style="7"/>
+    <col min="11010" max="11010" width="5.33203125" style="7" customWidth="1"/>
+    <col min="11011" max="11011" width="14.83203125" style="7" customWidth="1"/>
+    <col min="11012" max="11012" width="45.1640625" style="7" customWidth="1"/>
+    <col min="11013" max="11013" width="28.33203125" style="7" customWidth="1"/>
+    <col min="11014" max="11014" width="13.6640625" style="7" customWidth="1"/>
+    <col min="11015" max="11015" width="19.83203125" style="7" customWidth="1"/>
+    <col min="11016" max="11264" width="9.1640625" style="7"/>
     <col min="11265" max="11265" width="4" style="7" customWidth="1"/>
-    <col min="11266" max="11266" width="5.28515625" style="7" customWidth="1"/>
-    <col min="11267" max="11267" width="14.85546875" style="7" customWidth="1"/>
-    <col min="11268" max="11268" width="45.140625" style="7" customWidth="1"/>
-    <col min="11269" max="11269" width="28.28515625" style="7" customWidth="1"/>
-    <col min="11270" max="11270" width="13.7109375" style="7" customWidth="1"/>
-    <col min="11271" max="11271" width="19.85546875" style="7" customWidth="1"/>
-    <col min="11272" max="11520" width="9.140625" style="7"/>
+    <col min="11266" max="11266" width="5.33203125" style="7" customWidth="1"/>
+    <col min="11267" max="11267" width="14.83203125" style="7" customWidth="1"/>
+    <col min="11268" max="11268" width="45.1640625" style="7" customWidth="1"/>
+    <col min="11269" max="11269" width="28.33203125" style="7" customWidth="1"/>
+    <col min="11270" max="11270" width="13.6640625" style="7" customWidth="1"/>
+    <col min="11271" max="11271" width="19.83203125" style="7" customWidth="1"/>
+    <col min="11272" max="11520" width="9.1640625" style="7"/>
     <col min="11521" max="11521" width="4" style="7" customWidth="1"/>
-    <col min="11522" max="11522" width="5.28515625" style="7" customWidth="1"/>
-    <col min="11523" max="11523" width="14.85546875" style="7" customWidth="1"/>
-    <col min="11524" max="11524" width="45.140625" style="7" customWidth="1"/>
-    <col min="11525" max="11525" width="28.28515625" style="7" customWidth="1"/>
-    <col min="11526" max="11526" width="13.7109375" style="7" customWidth="1"/>
-    <col min="11527" max="11527" width="19.85546875" style="7" customWidth="1"/>
-    <col min="11528" max="11776" width="9.140625" style="7"/>
+    <col min="11522" max="11522" width="5.33203125" style="7" customWidth="1"/>
+    <col min="11523" max="11523" width="14.83203125" style="7" customWidth="1"/>
+    <col min="11524" max="11524" width="45.1640625" style="7" customWidth="1"/>
+    <col min="11525" max="11525" width="28.33203125" style="7" customWidth="1"/>
+    <col min="11526" max="11526" width="13.6640625" style="7" customWidth="1"/>
+    <col min="11527" max="11527" width="19.83203125" style="7" customWidth="1"/>
+    <col min="11528" max="11776" width="9.1640625" style="7"/>
     <col min="11777" max="11777" width="4" style="7" customWidth="1"/>
-    <col min="11778" max="11778" width="5.28515625" style="7" customWidth="1"/>
-    <col min="11779" max="11779" width="14.85546875" style="7" customWidth="1"/>
-    <col min="11780" max="11780" width="45.140625" style="7" customWidth="1"/>
-    <col min="11781" max="11781" width="28.28515625" style="7" customWidth="1"/>
-    <col min="11782" max="11782" width="13.7109375" style="7" customWidth="1"/>
-    <col min="11783" max="11783" width="19.85546875" style="7" customWidth="1"/>
-    <col min="11784" max="12032" width="9.140625" style="7"/>
+    <col min="11778" max="11778" width="5.33203125" style="7" customWidth="1"/>
+    <col min="11779" max="11779" width="14.83203125" style="7" customWidth="1"/>
+    <col min="11780" max="11780" width="45.1640625" style="7" customWidth="1"/>
+    <col min="11781" max="11781" width="28.33203125" style="7" customWidth="1"/>
+    <col min="11782" max="11782" width="13.6640625" style="7" customWidth="1"/>
+    <col min="11783" max="11783" width="19.83203125" style="7" customWidth="1"/>
+    <col min="11784" max="12032" width="9.1640625" style="7"/>
     <col min="12033" max="12033" width="4" style="7" customWidth="1"/>
-    <col min="12034" max="12034" width="5.28515625" style="7" customWidth="1"/>
-    <col min="12035" max="12035" width="14.85546875" style="7" customWidth="1"/>
-    <col min="12036" max="12036" width="45.140625" style="7" customWidth="1"/>
-    <col min="12037" max="12037" width="28.28515625" style="7" customWidth="1"/>
-    <col min="12038" max="12038" width="13.7109375" style="7" customWidth="1"/>
-    <col min="12039" max="12039" width="19.85546875" style="7" customWidth="1"/>
-    <col min="12040" max="12288" width="9.140625" style="7"/>
+    <col min="12034" max="12034" width="5.33203125" style="7" customWidth="1"/>
+    <col min="12035" max="12035" width="14.83203125" style="7" customWidth="1"/>
+    <col min="12036" max="12036" width="45.1640625" style="7" customWidth="1"/>
+    <col min="12037" max="12037" width="28.33203125" style="7" customWidth="1"/>
+    <col min="12038" max="12038" width="13.6640625" style="7" customWidth="1"/>
+    <col min="12039" max="12039" width="19.83203125" style="7" customWidth="1"/>
+    <col min="12040" max="12288" width="9.1640625" style="7"/>
     <col min="12289" max="12289" width="4" style="7" customWidth="1"/>
-    <col min="12290" max="12290" width="5.28515625" style="7" customWidth="1"/>
-    <col min="12291" max="12291" width="14.85546875" style="7" customWidth="1"/>
-    <col min="12292" max="12292" width="45.140625" style="7" customWidth="1"/>
-    <col min="12293" max="12293" width="28.28515625" style="7" customWidth="1"/>
-    <col min="12294" max="12294" width="13.7109375" style="7" customWidth="1"/>
-    <col min="12295" max="12295" width="19.85546875" style="7" customWidth="1"/>
-    <col min="12296" max="12544" width="9.140625" style="7"/>
+    <col min="12290" max="12290" width="5.33203125" style="7" customWidth="1"/>
+    <col min="12291" max="12291" width="14.83203125" style="7" customWidth="1"/>
+    <col min="12292" max="12292" width="45.1640625" style="7" customWidth="1"/>
+    <col min="12293" max="12293" width="28.33203125" style="7" customWidth="1"/>
+    <col min="12294" max="12294" width="13.6640625" style="7" customWidth="1"/>
+    <col min="12295" max="12295" width="19.83203125" style="7" customWidth="1"/>
+    <col min="12296" max="12544" width="9.1640625" style="7"/>
     <col min="12545" max="12545" width="4" style="7" customWidth="1"/>
-    <col min="12546" max="12546" width="5.28515625" style="7" customWidth="1"/>
-    <col min="12547" max="12547" width="14.85546875" style="7" customWidth="1"/>
-    <col min="12548" max="12548" width="45.140625" style="7" customWidth="1"/>
-    <col min="12549" max="12549" width="28.28515625" style="7" customWidth="1"/>
-    <col min="12550" max="12550" width="13.7109375" style="7" customWidth="1"/>
-    <col min="12551" max="12551" width="19.85546875" style="7" customWidth="1"/>
-    <col min="12552" max="12800" width="9.140625" style="7"/>
+    <col min="12546" max="12546" width="5.33203125" style="7" customWidth="1"/>
+    <col min="12547" max="12547" width="14.83203125" style="7" customWidth="1"/>
+    <col min="12548" max="12548" width="45.1640625" style="7" customWidth="1"/>
+    <col min="12549" max="12549" width="28.33203125" style="7" customWidth="1"/>
+    <col min="12550" max="12550" width="13.6640625" style="7" customWidth="1"/>
+    <col min="12551" max="12551" width="19.83203125" style="7" customWidth="1"/>
+    <col min="12552" max="12800" width="9.1640625" style="7"/>
     <col min="12801" max="12801" width="4" style="7" customWidth="1"/>
-    <col min="12802" max="12802" width="5.28515625" style="7" customWidth="1"/>
-    <col min="12803" max="12803" width="14.85546875" style="7" customWidth="1"/>
-    <col min="12804" max="12804" width="45.140625" style="7" customWidth="1"/>
-    <col min="12805" max="12805" width="28.28515625" style="7" customWidth="1"/>
-    <col min="12806" max="12806" width="13.7109375" style="7" customWidth="1"/>
-    <col min="12807" max="12807" width="19.85546875" style="7" customWidth="1"/>
-    <col min="12808" max="13056" width="9.140625" style="7"/>
+    <col min="12802" max="12802" width="5.33203125" style="7" customWidth="1"/>
+    <col min="12803" max="12803" width="14.83203125" style="7" customWidth="1"/>
+    <col min="12804" max="12804" width="45.1640625" style="7" customWidth="1"/>
+    <col min="12805" max="12805" width="28.33203125" style="7" customWidth="1"/>
+    <col min="12806" max="12806" width="13.6640625" style="7" customWidth="1"/>
+    <col min="12807" max="12807" width="19.83203125" style="7" customWidth="1"/>
+    <col min="12808" max="13056" width="9.1640625" style="7"/>
     <col min="13057" max="13057" width="4" style="7" customWidth="1"/>
-    <col min="13058" max="13058" width="5.28515625" style="7" customWidth="1"/>
-    <col min="13059" max="13059" width="14.85546875" style="7" customWidth="1"/>
-    <col min="13060" max="13060" width="45.140625" style="7" customWidth="1"/>
-    <col min="13061" max="13061" width="28.28515625" style="7" customWidth="1"/>
-    <col min="13062" max="13062" width="13.7109375" style="7" customWidth="1"/>
-    <col min="13063" max="13063" width="19.85546875" style="7" customWidth="1"/>
-    <col min="13064" max="13312" width="9.140625" style="7"/>
+    <col min="13058" max="13058" width="5.33203125" style="7" customWidth="1"/>
+    <col min="13059" max="13059" width="14.83203125" style="7" customWidth="1"/>
+    <col min="13060" max="13060" width="45.1640625" style="7" customWidth="1"/>
+    <col min="13061" max="13061" width="28.33203125" style="7" customWidth="1"/>
+    <col min="13062" max="13062" width="13.6640625" style="7" customWidth="1"/>
+    <col min="13063" max="13063" width="19.83203125" style="7" customWidth="1"/>
+    <col min="13064" max="13312" width="9.1640625" style="7"/>
     <col min="13313" max="13313" width="4" style="7" customWidth="1"/>
-    <col min="13314" max="13314" width="5.28515625" style="7" customWidth="1"/>
-    <col min="13315" max="13315" width="14.85546875" style="7" customWidth="1"/>
-    <col min="13316" max="13316" width="45.140625" style="7" customWidth="1"/>
-    <col min="13317" max="13317" width="28.28515625" style="7" customWidth="1"/>
-    <col min="13318" max="13318" width="13.7109375" style="7" customWidth="1"/>
-    <col min="13319" max="13319" width="19.85546875" style="7" customWidth="1"/>
-    <col min="13320" max="13568" width="9.140625" style="7"/>
+    <col min="13314" max="13314" width="5.33203125" style="7" customWidth="1"/>
+    <col min="13315" max="13315" width="14.83203125" style="7" customWidth="1"/>
+    <col min="13316" max="13316" width="45.1640625" style="7" customWidth="1"/>
+    <col min="13317" max="13317" width="28.33203125" style="7" customWidth="1"/>
+    <col min="13318" max="13318" width="13.6640625" style="7" customWidth="1"/>
+    <col min="13319" max="13319" width="19.83203125" style="7" customWidth="1"/>
+    <col min="13320" max="13568" width="9.1640625" style="7"/>
     <col min="13569" max="13569" width="4" style="7" customWidth="1"/>
-    <col min="13570" max="13570" width="5.28515625" style="7" customWidth="1"/>
-    <col min="13571" max="13571" width="14.85546875" style="7" customWidth="1"/>
-    <col min="13572" max="13572" width="45.140625" style="7" customWidth="1"/>
-    <col min="13573" max="13573" width="28.28515625" style="7" customWidth="1"/>
-    <col min="13574" max="13574" width="13.7109375" style="7" customWidth="1"/>
-    <col min="13575" max="13575" width="19.85546875" style="7" customWidth="1"/>
-    <col min="13576" max="13824" width="9.140625" style="7"/>
+    <col min="13570" max="13570" width="5.33203125" style="7" customWidth="1"/>
+    <col min="13571" max="13571" width="14.83203125" style="7" customWidth="1"/>
+    <col min="13572" max="13572" width="45.1640625" style="7" customWidth="1"/>
+    <col min="13573" max="13573" width="28.33203125" style="7" customWidth="1"/>
+    <col min="13574" max="13574" width="13.6640625" style="7" customWidth="1"/>
+    <col min="13575" max="13575" width="19.83203125" style="7" customWidth="1"/>
+    <col min="13576" max="13824" width="9.1640625" style="7"/>
     <col min="13825" max="13825" width="4" style="7" customWidth="1"/>
-    <col min="13826" max="13826" width="5.28515625" style="7" customWidth="1"/>
-    <col min="13827" max="13827" width="14.85546875" style="7" customWidth="1"/>
-    <col min="13828" max="13828" width="45.140625" style="7" customWidth="1"/>
-    <col min="13829" max="13829" width="28.28515625" style="7" customWidth="1"/>
-    <col min="13830" max="13830" width="13.7109375" style="7" customWidth="1"/>
-    <col min="13831" max="13831" width="19.85546875" style="7" customWidth="1"/>
-    <col min="13832" max="14080" width="9.140625" style="7"/>
+    <col min="13826" max="13826" width="5.33203125" style="7" customWidth="1"/>
+    <col min="13827" max="13827" width="14.83203125" style="7" customWidth="1"/>
+    <col min="13828" max="13828" width="45.1640625" style="7" customWidth="1"/>
+    <col min="13829" max="13829" width="28.33203125" style="7" customWidth="1"/>
+    <col min="13830" max="13830" width="13.6640625" style="7" customWidth="1"/>
+    <col min="13831" max="13831" width="19.83203125" style="7" customWidth="1"/>
+    <col min="13832" max="14080" width="9.1640625" style="7"/>
     <col min="14081" max="14081" width="4" style="7" customWidth="1"/>
-    <col min="14082" max="14082" width="5.28515625" style="7" customWidth="1"/>
-    <col min="14083" max="14083" width="14.85546875" style="7" customWidth="1"/>
-    <col min="14084" max="14084" width="45.140625" style="7" customWidth="1"/>
-    <col min="14085" max="14085" width="28.28515625" style="7" customWidth="1"/>
-    <col min="14086" max="14086" width="13.7109375" style="7" customWidth="1"/>
-    <col min="14087" max="14087" width="19.85546875" style="7" customWidth="1"/>
-    <col min="14088" max="14336" width="9.140625" style="7"/>
+    <col min="14082" max="14082" width="5.33203125" style="7" customWidth="1"/>
+    <col min="14083" max="14083" width="14.83203125" style="7" customWidth="1"/>
+    <col min="14084" max="14084" width="45.1640625" style="7" customWidth="1"/>
+    <col min="14085" max="14085" width="28.33203125" style="7" customWidth="1"/>
+    <col min="14086" max="14086" width="13.6640625" style="7" customWidth="1"/>
+    <col min="14087" max="14087" width="19.83203125" style="7" customWidth="1"/>
+    <col min="14088" max="14336" width="9.1640625" style="7"/>
     <col min="14337" max="14337" width="4" style="7" customWidth="1"/>
-    <col min="14338" max="14338" width="5.28515625" style="7" customWidth="1"/>
-    <col min="14339" max="14339" width="14.85546875" style="7" customWidth="1"/>
-    <col min="14340" max="14340" width="45.140625" style="7" customWidth="1"/>
-    <col min="14341" max="14341" width="28.28515625" style="7" customWidth="1"/>
-    <col min="14342" max="14342" width="13.7109375" style="7" customWidth="1"/>
-    <col min="14343" max="14343" width="19.85546875" style="7" customWidth="1"/>
-    <col min="14344" max="14592" width="9.140625" style="7"/>
+    <col min="14338" max="14338" width="5.33203125" style="7" customWidth="1"/>
+    <col min="14339" max="14339" width="14.83203125" style="7" customWidth="1"/>
+    <col min="14340" max="14340" width="45.1640625" style="7" customWidth="1"/>
+    <col min="14341" max="14341" width="28.33203125" style="7" customWidth="1"/>
+    <col min="14342" max="14342" width="13.6640625" style="7" customWidth="1"/>
+    <col min="14343" max="14343" width="19.83203125" style="7" customWidth="1"/>
+    <col min="14344" max="14592" width="9.1640625" style="7"/>
     <col min="14593" max="14593" width="4" style="7" customWidth="1"/>
-    <col min="14594" max="14594" width="5.28515625" style="7" customWidth="1"/>
-    <col min="14595" max="14595" width="14.85546875" style="7" customWidth="1"/>
-    <col min="14596" max="14596" width="45.140625" style="7" customWidth="1"/>
-    <col min="14597" max="14597" width="28.28515625" style="7" customWidth="1"/>
-    <col min="14598" max="14598" width="13.7109375" style="7" customWidth="1"/>
-    <col min="14599" max="14599" width="19.85546875" style="7" customWidth="1"/>
-    <col min="14600" max="14848" width="9.140625" style="7"/>
+    <col min="14594" max="14594" width="5.33203125" style="7" customWidth="1"/>
+    <col min="14595" max="14595" width="14.83203125" style="7" customWidth="1"/>
+    <col min="14596" max="14596" width="45.1640625" style="7" customWidth="1"/>
+    <col min="14597" max="14597" width="28.33203125" style="7" customWidth="1"/>
+    <col min="14598" max="14598" width="13.6640625" style="7" customWidth="1"/>
+    <col min="14599" max="14599" width="19.83203125" style="7" customWidth="1"/>
+    <col min="14600" max="14848" width="9.1640625" style="7"/>
     <col min="14849" max="14849" width="4" style="7" customWidth="1"/>
-    <col min="14850" max="14850" width="5.28515625" style="7" customWidth="1"/>
-    <col min="14851" max="14851" width="14.85546875" style="7" customWidth="1"/>
-    <col min="14852" max="14852" width="45.140625" style="7" customWidth="1"/>
-    <col min="14853" max="14853" width="28.28515625" style="7" customWidth="1"/>
-    <col min="14854" max="14854" width="13.7109375" style="7" customWidth="1"/>
-    <col min="14855" max="14855" width="19.85546875" style="7" customWidth="1"/>
-    <col min="14856" max="15104" width="9.140625" style="7"/>
+    <col min="14850" max="14850" width="5.33203125" style="7" customWidth="1"/>
+    <col min="14851" max="14851" width="14.83203125" style="7" customWidth="1"/>
+    <col min="14852" max="14852" width="45.1640625" style="7" customWidth="1"/>
+    <col min="14853" max="14853" width="28.33203125" style="7" customWidth="1"/>
+    <col min="14854" max="14854" width="13.6640625" style="7" customWidth="1"/>
+    <col min="14855" max="14855" width="19.83203125" style="7" customWidth="1"/>
+    <col min="14856" max="15104" width="9.1640625" style="7"/>
     <col min="15105" max="15105" width="4" style="7" customWidth="1"/>
-    <col min="15106" max="15106" width="5.28515625" style="7" customWidth="1"/>
-    <col min="15107" max="15107" width="14.85546875" style="7" customWidth="1"/>
-    <col min="15108" max="15108" width="45.140625" style="7" customWidth="1"/>
-    <col min="15109" max="15109" width="28.28515625" style="7" customWidth="1"/>
-    <col min="15110" max="15110" width="13.7109375" style="7" customWidth="1"/>
-    <col min="15111" max="15111" width="19.85546875" style="7" customWidth="1"/>
-    <col min="15112" max="15360" width="9.140625" style="7"/>
+    <col min="15106" max="15106" width="5.33203125" style="7" customWidth="1"/>
+    <col min="15107" max="15107" width="14.83203125" style="7" customWidth="1"/>
+    <col min="15108" max="15108" width="45.1640625" style="7" customWidth="1"/>
+    <col min="15109" max="15109" width="28.33203125" style="7" customWidth="1"/>
+    <col min="15110" max="15110" width="13.6640625" style="7" customWidth="1"/>
+    <col min="15111" max="15111" width="19.83203125" style="7" customWidth="1"/>
+    <col min="15112" max="15360" width="9.1640625" style="7"/>
     <col min="15361" max="15361" width="4" style="7" customWidth="1"/>
-    <col min="15362" max="15362" width="5.28515625" style="7" customWidth="1"/>
-    <col min="15363" max="15363" width="14.85546875" style="7" customWidth="1"/>
-    <col min="15364" max="15364" width="45.140625" style="7" customWidth="1"/>
-    <col min="15365" max="15365" width="28.28515625" style="7" customWidth="1"/>
-    <col min="15366" max="15366" width="13.7109375" style="7" customWidth="1"/>
-    <col min="15367" max="15367" width="19.85546875" style="7" customWidth="1"/>
-    <col min="15368" max="15616" width="9.140625" style="7"/>
+    <col min="15362" max="15362" width="5.33203125" style="7" customWidth="1"/>
+    <col min="15363" max="15363" width="14.83203125" style="7" customWidth="1"/>
+    <col min="15364" max="15364" width="45.1640625" style="7" customWidth="1"/>
+    <col min="15365" max="15365" width="28.33203125" style="7" customWidth="1"/>
+    <col min="15366" max="15366" width="13.6640625" style="7" customWidth="1"/>
+    <col min="15367" max="15367" width="19.83203125" style="7" customWidth="1"/>
+    <col min="15368" max="15616" width="9.1640625" style="7"/>
     <col min="15617" max="15617" width="4" style="7" customWidth="1"/>
-    <col min="15618" max="15618" width="5.28515625" style="7" customWidth="1"/>
-    <col min="15619" max="15619" width="14.85546875" style="7" customWidth="1"/>
-    <col min="15620" max="15620" width="45.140625" style="7" customWidth="1"/>
-    <col min="15621" max="15621" width="28.28515625" style="7" customWidth="1"/>
-    <col min="15622" max="15622" width="13.7109375" style="7" customWidth="1"/>
-    <col min="15623" max="15623" width="19.85546875" style="7" customWidth="1"/>
-    <col min="15624" max="15872" width="9.140625" style="7"/>
+    <col min="15618" max="15618" width="5.33203125" style="7" customWidth="1"/>
+    <col min="15619" max="15619" width="14.83203125" style="7" customWidth="1"/>
+    <col min="15620" max="15620" width="45.1640625" style="7" customWidth="1"/>
+    <col min="15621" max="15621" width="28.33203125" style="7" customWidth="1"/>
+    <col min="15622" max="15622" width="13.6640625" style="7" customWidth="1"/>
+    <col min="15623" max="15623" width="19.83203125" style="7" customWidth="1"/>
+    <col min="15624" max="15872" width="9.1640625" style="7"/>
     <col min="15873" max="15873" width="4" style="7" customWidth="1"/>
-    <col min="15874" max="15874" width="5.28515625" style="7" customWidth="1"/>
-    <col min="15875" max="15875" width="14.85546875" style="7" customWidth="1"/>
-    <col min="15876" max="15876" width="45.140625" style="7" customWidth="1"/>
-    <col min="15877" max="15877" width="28.28515625" style="7" customWidth="1"/>
-    <col min="15878" max="15878" width="13.7109375" style="7" customWidth="1"/>
-    <col min="15879" max="15879" width="19.85546875" style="7" customWidth="1"/>
-    <col min="15880" max="16128" width="9.140625" style="7"/>
+    <col min="15874" max="15874" width="5.33203125" style="7" customWidth="1"/>
+    <col min="15875" max="15875" width="14.83203125" style="7" customWidth="1"/>
+    <col min="15876" max="15876" width="45.1640625" style="7" customWidth="1"/>
+    <col min="15877" max="15877" width="28.33203125" style="7" customWidth="1"/>
+    <col min="15878" max="15878" width="13.6640625" style="7" customWidth="1"/>
+    <col min="15879" max="15879" width="19.83203125" style="7" customWidth="1"/>
+    <col min="15880" max="16128" width="9.1640625" style="7"/>
     <col min="16129" max="16129" width="4" style="7" customWidth="1"/>
-    <col min="16130" max="16130" width="5.28515625" style="7" customWidth="1"/>
-    <col min="16131" max="16131" width="14.85546875" style="7" customWidth="1"/>
-    <col min="16132" max="16132" width="45.140625" style="7" customWidth="1"/>
-    <col min="16133" max="16133" width="28.28515625" style="7" customWidth="1"/>
-    <col min="16134" max="16134" width="13.7109375" style="7" customWidth="1"/>
-    <col min="16135" max="16135" width="19.85546875" style="7" customWidth="1"/>
-    <col min="16136" max="16384" width="9.140625" style="7"/>
+    <col min="16130" max="16130" width="5.33203125" style="7" customWidth="1"/>
+    <col min="16131" max="16131" width="14.83203125" style="7" customWidth="1"/>
+    <col min="16132" max="16132" width="45.1640625" style="7" customWidth="1"/>
+    <col min="16133" max="16133" width="28.33203125" style="7" customWidth="1"/>
+    <col min="16134" max="16134" width="13.6640625" style="7" customWidth="1"/>
+    <col min="16135" max="16135" width="19.83203125" style="7" customWidth="1"/>
+    <col min="16136" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="52" t="s">
+    <row r="1" spans="1:8" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="57" t="s">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="35"/>
@@ -1816,7 +1826,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="35"/>
@@ -1827,46 +1837,46 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="55"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="81"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="71"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1875,199 +1885,199 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
-    </row>
-    <row r="13" spans="1:8" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="73" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+    </row>
+    <row r="13" spans="1:8" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>1</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="57">
         <v>2</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="40">
         <v>3</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="57">
         <v>4</v>
       </c>
-      <c r="F14" s="78"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="41">
         <v>5</v>
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="15"/>
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="15"/>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="15"/>
       <c r="E19" s="36"/>
       <c r="F19" s="37"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="15"/>
       <c r="E20" s="36"/>
       <c r="F20" s="37"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="15"/>
       <c r="E21" s="36"/>
       <c r="F21" s="37"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="42"/>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="43"/>
     </row>
-    <row r="29" spans="1:7" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26" t="s">
         <v>2</v>
       </c>
@@ -2078,7 +2088,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="21" t="s">
         <v>3</v>
@@ -2089,118 +2099,118 @@
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C35" s="25"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C36" s="25"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C37" s="25"/>
       <c r="F37" s="32" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="29"/>
     </row>
-    <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="25"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C39" s="25"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C40" s="25"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="25"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C42" s="25"/>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C43" s="25"/>
       <c r="F43" s="32"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="25"/>
       <c r="F44" s="31"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C45" s="25"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C46" s="25"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="25"/>
       <c r="F47" s="31"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C49" s="25"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
     </row>
-    <row r="50" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="25"/>
       <c r="F50" s="31"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C51" s="25"/>
       <c r="F51" s="22"/>
       <c r="G51" s="31"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C52" s="25"/>
       <c r="F52" s="33"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C53" s="25"/>
       <c r="F53" s="31"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C54" s="25"/>
       <c r="F54" s="22"/>
       <c r="G54" s="31"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C55" s="25"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C56" s="25"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C57" s="25"/>
     </row>
-    <row r="58" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="F58" s="7"/>
@@ -2208,7 +2218,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="F59" s="7"/>
@@ -2216,7 +2226,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="F60" s="7"/>
@@ -2224,7 +2234,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="F61" s="7"/>
@@ -2232,7 +2242,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="F62" s="7"/>
@@ -2240,7 +2250,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="F63" s="7"/>
@@ -2248,7 +2258,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="F64" s="7"/>
@@ -2256,7 +2266,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="F65" s="7"/>
@@ -2264,7 +2274,7 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="F66" s="7"/>
@@ -2272,7 +2282,7 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="F67" s="7"/>
@@ -2280,7 +2290,7 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="F68" s="7"/>
@@ -2288,7 +2298,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="F69" s="7"/>
@@ -2296,7 +2306,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="F70" s="7"/>
@@ -2304,7 +2314,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="F71" s="7"/>
@@ -2312,7 +2322,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="F72" s="7"/>
@@ -2320,7 +2330,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="F73" s="7"/>
@@ -2328,7 +2338,7 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="F74" s="7"/>
@@ -2336,7 +2346,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="F75" s="7"/>
@@ -2344,7 +2354,7 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="F76" s="7"/>
@@ -2352,7 +2362,7 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
     </row>
-    <row r="77" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="F77" s="7"/>
@@ -2360,7 +2370,7 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="F78" s="7"/>
@@ -2368,7 +2378,7 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="F79" s="7"/>
@@ -2376,7 +2386,7 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="F80" s="7"/>
@@ -2384,7 +2394,7 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="F81" s="7"/>
@@ -2392,7 +2402,7 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="F82" s="7"/>
@@ -2400,7 +2410,7 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="F83" s="7"/>
@@ -2408,7 +2418,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="F84" s="7"/>
@@ -2416,7 +2426,7 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="F85" s="7"/>
@@ -2424,7 +2434,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="F86" s="7"/>
@@ -2432,7 +2442,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="F87" s="7"/>
@@ -2440,7 +2450,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="F88" s="7"/>
@@ -2448,7 +2458,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="F89" s="7"/>
@@ -2456,7 +2466,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="F90" s="7"/>
@@ -2464,7 +2474,7 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="F91" s="7"/>
@@ -2472,7 +2482,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="F92" s="7"/>
@@ -2480,7 +2490,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="F93" s="7"/>
@@ -2488,7 +2498,7 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="F94" s="7"/>
@@ -2496,7 +2506,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="F95" s="7"/>
@@ -2504,7 +2514,7 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
     </row>
-    <row r="96" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="F96" s="7"/>
@@ -2512,7 +2522,7 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
     </row>
-    <row r="97" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="F97" s="7"/>
@@ -2520,7 +2530,7 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
     </row>
-    <row r="98" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="F98" s="7"/>
@@ -2528,7 +2538,7 @@
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
     </row>
-    <row r="99" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="F99" s="7"/>
@@ -2536,7 +2546,7 @@
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
     </row>
-    <row r="100" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="F100" s="7"/>
@@ -2544,7 +2554,7 @@
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
     </row>
-    <row r="101" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="F101" s="7"/>
@@ -2552,7 +2562,7 @@
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
     </row>
-    <row r="102" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="F102" s="7"/>
@@ -2560,7 +2570,7 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
     </row>
-    <row r="103" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="F103" s="7"/>
@@ -2568,7 +2578,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="F104" s="7"/>
@@ -2576,7 +2586,7 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
     </row>
-    <row r="105" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="F105" s="7"/>
@@ -2584,7 +2594,7 @@
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
     </row>
-    <row r="106" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="F106" s="7"/>
@@ -2592,7 +2602,7 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
     </row>
-    <row r="107" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="F107" s="7"/>
@@ -2600,7 +2610,7 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
     </row>
-    <row r="108" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="F108" s="7"/>
@@ -2608,7 +2618,7 @@
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
     </row>
-    <row r="109" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="F109" s="7"/>
@@ -2616,7 +2626,7 @@
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
     </row>
-    <row r="110" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="F110" s="7"/>
@@ -2624,7 +2634,7 @@
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
     </row>
-    <row r="111" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="F111" s="7"/>
@@ -2632,7 +2642,7 @@
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
     </row>
-    <row r="112" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="F112" s="7"/>
@@ -2640,7 +2650,7 @@
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="F113" s="7"/>
@@ -2648,7 +2658,7 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="F114" s="7"/>
@@ -2656,7 +2666,7 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="F115" s="7"/>
@@ -2664,7 +2674,7 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="F116" s="7"/>
@@ -2672,7 +2682,7 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
     </row>
-    <row r="117" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="F117" s="7"/>
@@ -2680,7 +2690,7 @@
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="F118" s="7"/>
@@ -2688,7 +2698,7 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="F119" s="7"/>
@@ -2696,7 +2706,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="F120" s="7"/>
@@ -2704,7 +2714,7 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="F121" s="7"/>
@@ -2712,7 +2722,7 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
     </row>
-    <row r="122" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="F122" s="7"/>
@@ -2720,7 +2730,7 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="F123" s="7"/>
@@ -2728,7 +2738,7 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="F124" s="7"/>
@@ -2736,7 +2746,7 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="F125" s="7"/>
@@ -2744,7 +2754,7 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
     </row>
-    <row r="126" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="F126" s="7"/>
@@ -2752,7 +2762,7 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
     </row>
-    <row r="127" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="F127" s="7"/>
@@ -2760,7 +2770,7 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
     </row>
-    <row r="128" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="F128" s="7"/>
@@ -2768,7 +2778,7 @@
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="F129" s="7"/>
@@ -2776,7 +2786,7 @@
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="F130" s="7"/>
@@ -2784,7 +2794,7 @@
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="F131" s="7"/>
@@ -2792,7 +2802,7 @@
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
     </row>
-    <row r="132" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="F132" s="7"/>
@@ -2800,7 +2810,7 @@
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
     </row>
-    <row r="133" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="F133" s="7"/>
@@ -2808,7 +2818,7 @@
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
     </row>
-    <row r="134" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="F134" s="7"/>
@@ -2816,7 +2826,7 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
     </row>
-    <row r="135" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="F135" s="7"/>
@@ -2824,7 +2834,7 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
     </row>
-    <row r="136" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="F136" s="7"/>
@@ -2832,7 +2842,7 @@
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
     </row>
-    <row r="137" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="F137" s="7"/>
@@ -2840,7 +2850,7 @@
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
     </row>
-    <row r="138" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="F138" s="7"/>
@@ -2848,7 +2858,7 @@
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
     </row>
-    <row r="139" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="F139" s="7"/>
@@ -2856,7 +2866,7 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="F140" s="7"/>
@@ -2864,7 +2874,7 @@
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
     </row>
-    <row r="141" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="F141" s="7"/>
@@ -2872,7 +2882,7 @@
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
     </row>
-    <row r="142" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="F142" s="7"/>
@@ -2880,7 +2890,7 @@
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
     </row>
-    <row r="143" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="F143" s="7"/>
@@ -2888,7 +2898,7 @@
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
     </row>
-    <row r="144" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="F144" s="7"/>
@@ -2896,7 +2906,7 @@
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="F145" s="7"/>
@@ -2904,7 +2914,7 @@
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="F146" s="7"/>
@@ -2912,7 +2922,7 @@
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="F147" s="7"/>
@@ -2920,7 +2930,7 @@
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
     </row>
-    <row r="148" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="F148" s="7"/>
@@ -2928,7 +2938,7 @@
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
     </row>
-    <row r="149" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="F149" s="7"/>
@@ -2936,7 +2946,7 @@
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
     </row>
-    <row r="150" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="F150" s="7"/>
@@ -2944,7 +2954,7 @@
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
     </row>
-    <row r="151" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="F151" s="7"/>
@@ -2952,7 +2962,7 @@
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
     </row>
-    <row r="152" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="F152" s="7"/>
@@ -2960,7 +2970,7 @@
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
     </row>
-    <row r="153" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="F153" s="7"/>
@@ -2968,7 +2978,7 @@
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
     </row>
-    <row r="154" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="F154" s="7"/>
@@ -2976,7 +2986,7 @@
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
     </row>
-    <row r="155" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="F155" s="7"/>
@@ -2984,7 +2994,7 @@
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
     </row>
-    <row r="156" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="F156" s="7"/>
@@ -2992,7 +3002,7 @@
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
     </row>
-    <row r="157" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="F157" s="7"/>
@@ -3000,7 +3010,7 @@
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
     </row>
-    <row r="158" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="F158" s="7"/>
@@ -3008,7 +3018,7 @@
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
     </row>
-    <row r="159" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="F159" s="7"/>
@@ -3016,7 +3026,7 @@
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
     </row>
-    <row r="160" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="F160" s="7"/>
@@ -3024,7 +3034,7 @@
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
     </row>
-    <row r="161" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="F161" s="7"/>
@@ -3032,7 +3042,7 @@
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
     </row>
-    <row r="162" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="F162" s="7"/>
@@ -3040,7 +3050,7 @@
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
     </row>
-    <row r="163" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="F163" s="7"/>
@@ -3048,7 +3058,7 @@
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
     </row>
-    <row r="164" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="F164" s="7"/>
@@ -3056,7 +3066,7 @@
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
     </row>
-    <row r="165" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="F165" s="7"/>
@@ -3064,7 +3074,7 @@
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
     </row>
-    <row r="166" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="F166" s="7"/>
@@ -3072,7 +3082,7 @@
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
     </row>
-    <row r="167" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="F167" s="7"/>
@@ -3080,7 +3090,7 @@
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
     </row>
-    <row r="168" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="F168" s="7"/>
@@ -3088,7 +3098,7 @@
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
     </row>
-    <row r="169" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="F169" s="7"/>
@@ -3096,7 +3106,7 @@
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
     </row>
-    <row r="170" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="F170" s="7"/>
@@ -3104,7 +3114,7 @@
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
     </row>
-    <row r="171" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="F171" s="7"/>
@@ -3112,7 +3122,7 @@
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
     </row>
-    <row r="172" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="F172" s="7"/>
@@ -3120,7 +3130,7 @@
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
     </row>
-    <row r="173" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="F173" s="7"/>
@@ -3128,7 +3138,7 @@
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
     </row>
-    <row r="174" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="F174" s="7"/>
@@ -3136,7 +3146,7 @@
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
     </row>
-    <row r="175" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="F175" s="7"/>
@@ -3144,7 +3154,7 @@
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
     </row>
-    <row r="176" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="F176" s="7"/>
@@ -3152,7 +3162,7 @@
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
     </row>
-    <row r="177" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="F177" s="7"/>
@@ -3160,7 +3170,7 @@
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
     </row>
-    <row r="178" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="F178" s="7"/>
@@ -3168,7 +3178,7 @@
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
     </row>
-    <row r="179" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="F179" s="7"/>
@@ -3176,7 +3186,7 @@
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
     </row>
-    <row r="180" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="F180" s="7"/>
@@ -3184,7 +3194,7 @@
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
     </row>
-    <row r="181" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="F181" s="7"/>
@@ -3192,7 +3202,7 @@
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
     </row>
-    <row r="182" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="F182" s="7"/>
@@ -3200,7 +3210,7 @@
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
     </row>
-    <row r="183" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="F183" s="7"/>
@@ -3208,7 +3218,7 @@
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
     </row>
-    <row r="184" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="F184" s="7"/>
@@ -3216,7 +3226,7 @@
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
     </row>
-    <row r="185" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="F185" s="7"/>
@@ -3224,7 +3234,7 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
     </row>
-    <row r="186" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="F186" s="7"/>
@@ -3232,7 +3242,7 @@
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
     </row>
-    <row r="187" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="F187" s="7"/>
@@ -3240,7 +3250,7 @@
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
     </row>
-    <row r="188" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="F188" s="7"/>
@@ -3248,7 +3258,7 @@
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
     </row>
-    <row r="189" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="F189" s="7"/>
@@ -3256,7 +3266,7 @@
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
     </row>
-    <row r="190" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="F190" s="7"/>
@@ -3264,7 +3274,7 @@
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
     </row>
-    <row r="191" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="F191" s="7"/>
@@ -3272,7 +3282,7 @@
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
     </row>
-    <row r="192" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="F192" s="7"/>
@@ -3280,7 +3290,7 @@
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
     </row>
-    <row r="193" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="F193" s="7"/>
@@ -3288,7 +3298,7 @@
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
     </row>
-    <row r="194" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="F194" s="7"/>
@@ -3296,7 +3306,7 @@
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
     </row>
-    <row r="195" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="F195" s="7"/>
@@ -3304,7 +3314,7 @@
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
     </row>
-    <row r="196" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="F196" s="7"/>
@@ -3312,7 +3322,7 @@
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
     </row>
-    <row r="197" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="F197" s="7"/>
@@ -3320,7 +3330,7 @@
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
     </row>
-    <row r="198" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="F198" s="7"/>
@@ -3328,7 +3338,7 @@
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
     </row>
-    <row r="199" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="F199" s="7"/>
@@ -3336,7 +3346,7 @@
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
     </row>
-    <row r="200" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="F200" s="7"/>
@@ -3344,7 +3354,7 @@
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
     </row>
-    <row r="201" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="F201" s="7"/>
@@ -3352,7 +3362,7 @@
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
     </row>
-    <row r="202" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="F202" s="7"/>
@@ -3360,7 +3370,7 @@
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
     </row>
-    <row r="203" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="F203" s="7"/>
@@ -3368,7 +3378,7 @@
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
     </row>
-    <row r="204" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="F204" s="7"/>
@@ -3376,7 +3386,7 @@
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
     </row>
-    <row r="205" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="F205" s="7"/>
@@ -3384,7 +3394,7 @@
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
     </row>
-    <row r="206" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="F206" s="7"/>
@@ -3392,7 +3402,7 @@
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
     </row>
-    <row r="207" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="F207" s="7"/>
@@ -3400,7 +3410,7 @@
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
     </row>
-    <row r="208" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="F208" s="7"/>
@@ -3408,7 +3418,7 @@
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
     </row>
-    <row r="209" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="F209" s="7"/>
@@ -3416,7 +3426,7 @@
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
     </row>
-    <row r="210" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="F210" s="7"/>
@@ -3424,7 +3434,7 @@
       <c r="H210" s="7"/>
       <c r="I210" s="7"/>
     </row>
-    <row r="211" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="F211" s="7"/>
@@ -3432,7 +3442,7 @@
       <c r="H211" s="7"/>
       <c r="I211" s="7"/>
     </row>
-    <row r="212" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="F212" s="7"/>
@@ -3440,7 +3450,7 @@
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
     </row>
-    <row r="213" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="F213" s="7"/>
@@ -3448,7 +3458,7 @@
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
     </row>
-    <row r="214" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="F214" s="7"/>
@@ -3456,7 +3466,7 @@
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
     </row>
-    <row r="215" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="F215" s="7"/>
@@ -3464,7 +3474,7 @@
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
     </row>
-    <row r="216" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="F216" s="7"/>
@@ -3472,7 +3482,7 @@
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
     </row>
-    <row r="217" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="F217" s="7"/>
@@ -3480,7 +3490,7 @@
       <c r="H217" s="7"/>
       <c r="I217" s="7"/>
     </row>
-    <row r="218" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="F218" s="7"/>
@@ -3488,7 +3498,7 @@
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
     </row>
-    <row r="219" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="F219" s="7"/>
@@ -3496,7 +3506,7 @@
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
     </row>
-    <row r="220" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="F220" s="7"/>
@@ -3504,7 +3514,7 @@
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
     </row>
-    <row r="221" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="F221" s="7"/>
@@ -3512,7 +3522,7 @@
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
     </row>
-    <row r="222" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="F222" s="7"/>
@@ -3520,7 +3530,7 @@
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
     </row>
-    <row r="223" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="F223" s="7"/>
@@ -3528,7 +3538,7 @@
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
     </row>
-    <row r="224" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="F224" s="7"/>
@@ -3536,7 +3546,7 @@
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
     </row>
-    <row r="225" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="F225" s="7"/>
@@ -3544,7 +3554,7 @@
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
     </row>
-    <row r="226" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="F226" s="7"/>
@@ -3552,7 +3562,7 @@
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
     </row>
-    <row r="227" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="F227" s="7"/>
@@ -3560,7 +3570,7 @@
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
     </row>
-    <row r="228" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="F228" s="7"/>
@@ -3568,7 +3578,7 @@
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
     </row>
-    <row r="229" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="F229" s="7"/>
@@ -3576,7 +3586,7 @@
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
     </row>
-    <row r="230" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="F230" s="7"/>
@@ -3584,7 +3594,7 @@
       <c r="H230" s="7"/>
       <c r="I230" s="7"/>
     </row>
-    <row r="231" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="F231" s="7"/>
@@ -3592,7 +3602,7 @@
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
     </row>
-    <row r="232" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="F232" s="7"/>
@@ -3600,7 +3610,7 @@
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
     </row>
-    <row r="233" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="F233" s="7"/>
@@ -3608,7 +3618,7 @@
       <c r="H233" s="7"/>
       <c r="I233" s="7"/>
     </row>
-    <row r="234" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="F234" s="7"/>
@@ -3616,7 +3626,7 @@
       <c r="H234" s="7"/>
       <c r="I234" s="7"/>
     </row>
-    <row r="235" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="F235" s="7"/>
@@ -3624,7 +3634,7 @@
       <c r="H235" s="7"/>
       <c r="I235" s="7"/>
     </row>
-    <row r="236" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="F236" s="7"/>
@@ -3632,7 +3642,7 @@
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
     </row>
-    <row r="237" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="F237" s="7"/>
@@ -3640,7 +3650,7 @@
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
     </row>
-    <row r="238" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="F238" s="7"/>
@@ -3648,7 +3658,7 @@
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
     </row>
-    <row r="239" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="F239" s="7"/>
@@ -3656,7 +3666,7 @@
       <c r="H239" s="7"/>
       <c r="I239" s="7"/>
     </row>
-    <row r="240" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="F240" s="7"/>
@@ -3664,7 +3674,7 @@
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
     </row>
-    <row r="241" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="F241" s="7"/>
@@ -3672,7 +3682,7 @@
       <c r="H241" s="7"/>
       <c r="I241" s="7"/>
     </row>
-    <row r="242" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="F242" s="7"/>
@@ -3680,7 +3690,7 @@
       <c r="H242" s="7"/>
       <c r="I242" s="7"/>
     </row>
-    <row r="243" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="F243" s="7"/>
@@ -3688,7 +3698,7 @@
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
     </row>
-    <row r="244" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="F244" s="7"/>
@@ -3696,7 +3706,7 @@
       <c r="H244" s="7"/>
       <c r="I244" s="7"/>
     </row>
-    <row r="245" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="F245" s="7"/>
@@ -3704,7 +3714,7 @@
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
     </row>
-    <row r="246" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="F246" s="7"/>
@@ -3712,7 +3722,7 @@
       <c r="H246" s="7"/>
       <c r="I246" s="7"/>
     </row>
-    <row r="247" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="F247" s="7"/>
@@ -3720,7 +3730,7 @@
       <c r="H247" s="7"/>
       <c r="I247" s="7"/>
     </row>
-    <row r="248" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="F248" s="7"/>
@@ -3728,7 +3738,7 @@
       <c r="H248" s="7"/>
       <c r="I248" s="7"/>
     </row>
-    <row r="249" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="F249" s="7"/>
@@ -3736,7 +3746,7 @@
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
     </row>
-    <row r="250" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="F250" s="7"/>
@@ -3744,7 +3754,7 @@
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
     </row>
-    <row r="251" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="F251" s="7"/>
@@ -3752,7 +3762,7 @@
       <c r="H251" s="7"/>
       <c r="I251" s="7"/>
     </row>
-    <row r="252" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="F252" s="7"/>
@@ -3760,7 +3770,7 @@
       <c r="H252" s="7"/>
       <c r="I252" s="7"/>
     </row>
-    <row r="253" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="F253" s="7"/>
@@ -3768,7 +3778,7 @@
       <c r="H253" s="7"/>
       <c r="I253" s="7"/>
     </row>
-    <row r="254" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="F254" s="7"/>
@@ -3776,7 +3786,7 @@
       <c r="H254" s="7"/>
       <c r="I254" s="7"/>
     </row>
-    <row r="255" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="F255" s="7"/>
@@ -3784,7 +3794,7 @@
       <c r="H255" s="7"/>
       <c r="I255" s="7"/>
     </row>
-    <row r="256" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="F256" s="7"/>
@@ -3792,7 +3802,7 @@
       <c r="H256" s="7"/>
       <c r="I256" s="7"/>
     </row>
-    <row r="257" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="F257" s="7"/>
@@ -3800,7 +3810,7 @@
       <c r="H257" s="7"/>
       <c r="I257" s="7"/>
     </row>
-    <row r="258" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="F258" s="7"/>
@@ -3808,7 +3818,7 @@
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
     </row>
-    <row r="259" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="F259" s="7"/>
@@ -3816,7 +3826,7 @@
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
     </row>
-    <row r="260" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="F260" s="7"/>
@@ -3824,7 +3834,7 @@
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
     </row>
-    <row r="261" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="F261" s="7"/>
@@ -3832,7 +3842,7 @@
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
     </row>
-    <row r="262" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="F262" s="7"/>
@@ -3840,7 +3850,7 @@
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
     </row>
-    <row r="263" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="F263" s="7"/>
@@ -3848,7 +3858,7 @@
       <c r="H263" s="7"/>
       <c r="I263" s="7"/>
     </row>
-    <row r="264" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="F264" s="7"/>
@@ -3856,7 +3866,7 @@
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
     </row>
-    <row r="265" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="F265" s="7"/>
@@ -3864,7 +3874,7 @@
       <c r="H265" s="7"/>
       <c r="I265" s="7"/>
     </row>
-    <row r="266" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="F266" s="7"/>
@@ -3872,7 +3882,7 @@
       <c r="H266" s="7"/>
       <c r="I266" s="7"/>
     </row>
-    <row r="267" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="F267" s="7"/>
@@ -3880,7 +3890,7 @@
       <c r="H267" s="7"/>
       <c r="I267" s="7"/>
     </row>
-    <row r="268" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="F268" s="7"/>
@@ -3888,7 +3898,7 @@
       <c r="H268" s="7"/>
       <c r="I268" s="7"/>
     </row>
-    <row r="269" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="F269" s="7"/>
@@ -3896,7 +3906,7 @@
       <c r="H269" s="7"/>
       <c r="I269" s="7"/>
     </row>
-    <row r="270" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="F270" s="7"/>
@@ -3904,7 +3914,7 @@
       <c r="H270" s="7"/>
       <c r="I270" s="7"/>
     </row>
-    <row r="271" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="F271" s="7"/>
@@ -3912,7 +3922,7 @@
       <c r="H271" s="7"/>
       <c r="I271" s="7"/>
     </row>
-    <row r="272" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="F272" s="7"/>
@@ -3920,7 +3930,7 @@
       <c r="H272" s="7"/>
       <c r="I272" s="7"/>
     </row>
-    <row r="273" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="F273" s="7"/>
@@ -3928,7 +3938,7 @@
       <c r="H273" s="7"/>
       <c r="I273" s="7"/>
     </row>
-    <row r="274" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="F274" s="7"/>
@@ -3936,7 +3946,7 @@
       <c r="H274" s="7"/>
       <c r="I274" s="7"/>
     </row>
-    <row r="275" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="F275" s="7"/>
@@ -3944,7 +3954,7 @@
       <c r="H275" s="7"/>
       <c r="I275" s="7"/>
     </row>
-    <row r="276" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="F276" s="7"/>
@@ -3952,7 +3962,7 @@
       <c r="H276" s="7"/>
       <c r="I276" s="7"/>
     </row>
-    <row r="277" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="F277" s="7"/>
@@ -3960,7 +3970,7 @@
       <c r="H277" s="7"/>
       <c r="I277" s="7"/>
     </row>
-    <row r="278" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="F278" s="7"/>
@@ -3968,7 +3978,7 @@
       <c r="H278" s="7"/>
       <c r="I278" s="7"/>
     </row>
-    <row r="279" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="F279" s="7"/>
@@ -3976,7 +3986,7 @@
       <c r="H279" s="7"/>
       <c r="I279" s="7"/>
     </row>
-    <row r="280" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="F280" s="7"/>
@@ -3984,7 +3994,7 @@
       <c r="H280" s="7"/>
       <c r="I280" s="7"/>
     </row>
-    <row r="281" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="F281" s="7"/>
@@ -3992,7 +4002,7 @@
       <c r="H281" s="7"/>
       <c r="I281" s="7"/>
     </row>
-    <row r="282" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="F282" s="7"/>
@@ -4000,7 +4010,7 @@
       <c r="H282" s="7"/>
       <c r="I282" s="7"/>
     </row>
-    <row r="283" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="F283" s="7"/>
@@ -4008,7 +4018,7 @@
       <c r="H283" s="7"/>
       <c r="I283" s="7"/>
     </row>
-    <row r="284" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="F284" s="7"/>
@@ -4016,7 +4026,7 @@
       <c r="H284" s="7"/>
       <c r="I284" s="7"/>
     </row>
-    <row r="285" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="F285" s="7"/>
@@ -4024,7 +4034,7 @@
       <c r="H285" s="7"/>
       <c r="I285" s="7"/>
     </row>
-    <row r="286" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="F286" s="7"/>
@@ -4032,7 +4042,7 @@
       <c r="H286" s="7"/>
       <c r="I286" s="7"/>
     </row>
-    <row r="287" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="F287" s="7"/>
@@ -4040,7 +4050,7 @@
       <c r="H287" s="7"/>
       <c r="I287" s="7"/>
     </row>
-    <row r="288" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="F288" s="7"/>
@@ -4048,7 +4058,7 @@
       <c r="H288" s="7"/>
       <c r="I288" s="7"/>
     </row>
-    <row r="289" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="F289" s="7"/>
@@ -4056,7 +4066,7 @@
       <c r="H289" s="7"/>
       <c r="I289" s="7"/>
     </row>
-    <row r="290" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="F290" s="7"/>
@@ -4064,7 +4074,7 @@
       <c r="H290" s="7"/>
       <c r="I290" s="7"/>
     </row>
-    <row r="291" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="F291" s="7"/>
@@ -4072,7 +4082,7 @@
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
     </row>
-    <row r="292" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="F292" s="7"/>
@@ -4080,7 +4090,7 @@
       <c r="H292" s="7"/>
       <c r="I292" s="7"/>
     </row>
-    <row r="293" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="F293" s="7"/>
@@ -4088,7 +4098,7 @@
       <c r="H293" s="7"/>
       <c r="I293" s="7"/>
     </row>
-    <row r="294" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="F294" s="7"/>
@@ -4096,7 +4106,7 @@
       <c r="H294" s="7"/>
       <c r="I294" s="7"/>
     </row>
-    <row r="295" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="F295" s="7"/>
@@ -4104,7 +4114,7 @@
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
     </row>
-    <row r="296" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="F296" s="7"/>
@@ -4112,7 +4122,7 @@
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
     </row>
-    <row r="297" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="F297" s="7"/>
@@ -4120,7 +4130,7 @@
       <c r="H297" s="7"/>
       <c r="I297" s="7"/>
     </row>
-    <row r="298" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="F298" s="7"/>
@@ -4128,7 +4138,7 @@
       <c r="H298" s="7"/>
       <c r="I298" s="7"/>
     </row>
-    <row r="299" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="F299" s="7"/>
@@ -4136,7 +4146,7 @@
       <c r="H299" s="7"/>
       <c r="I299" s="7"/>
     </row>
-    <row r="300" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="F300" s="7"/>
@@ -4144,7 +4154,7 @@
       <c r="H300" s="7"/>
       <c r="I300" s="7"/>
     </row>
-    <row r="301" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="F301" s="7"/>
@@ -4152,7 +4162,7 @@
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
     </row>
-    <row r="302" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="F302" s="7"/>
@@ -4160,7 +4170,7 @@
       <c r="H302" s="7"/>
       <c r="I302" s="7"/>
     </row>
-    <row r="303" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="F303" s="7"/>
@@ -4168,7 +4178,7 @@
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
     </row>
-    <row r="304" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="F304" s="7"/>
@@ -4176,7 +4186,7 @@
       <c r="H304" s="7"/>
       <c r="I304" s="7"/>
     </row>
-    <row r="305" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="F305" s="7"/>
@@ -4184,7 +4194,7 @@
       <c r="H305" s="7"/>
       <c r="I305" s="7"/>
     </row>
-    <row r="306" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="F306" s="7"/>
@@ -4192,7 +4202,7 @@
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
     </row>
-    <row r="307" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="F307" s="7"/>
@@ -4200,7 +4210,7 @@
       <c r="H307" s="7"/>
       <c r="I307" s="7"/>
     </row>
-    <row r="308" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="F308" s="7"/>
@@ -4208,7 +4218,7 @@
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
     </row>
-    <row r="309" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="F309" s="7"/>
@@ -4216,7 +4226,7 @@
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
     </row>
-    <row r="310" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="F310" s="7"/>
@@ -4224,7 +4234,7 @@
       <c r="H310" s="7"/>
       <c r="I310" s="7"/>
     </row>
-    <row r="311" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="F311" s="7"/>
@@ -4232,7 +4242,7 @@
       <c r="H311" s="7"/>
       <c r="I311" s="7"/>
     </row>
-    <row r="312" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="F312" s="7"/>
@@ -4240,7 +4250,7 @@
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
     </row>
-    <row r="313" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="F313" s="7"/>
@@ -4248,7 +4258,7 @@
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
     </row>
-    <row r="314" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="F314" s="7"/>
@@ -4256,7 +4266,7 @@
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
     </row>
-    <row r="315" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="F315" s="7"/>
@@ -4264,7 +4274,7 @@
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
     </row>
-    <row r="316" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="F316" s="7"/>
@@ -4272,7 +4282,7 @@
       <c r="H316" s="7"/>
       <c r="I316" s="7"/>
     </row>
-    <row r="317" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="F317" s="7"/>
@@ -4280,7 +4290,7 @@
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
     </row>
-    <row r="318" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="F318" s="7"/>
@@ -4288,7 +4298,7 @@
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
     </row>
-    <row r="319" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="F319" s="7"/>
@@ -4296,7 +4306,7 @@
       <c r="H319" s="7"/>
       <c r="I319" s="7"/>
     </row>
-    <row r="320" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="F320" s="7"/>
@@ -4304,7 +4314,7 @@
       <c r="H320" s="7"/>
       <c r="I320" s="7"/>
     </row>
-    <row r="321" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="F321" s="7"/>
@@ -4312,7 +4322,7 @@
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
     </row>
-    <row r="322" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="F322" s="7"/>
@@ -4320,7 +4330,7 @@
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
     </row>
-    <row r="323" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="F323" s="7"/>
@@ -4328,7 +4338,7 @@
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
     </row>
-    <row r="324" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="F324" s="7"/>
@@ -4336,7 +4346,7 @@
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
     </row>
-    <row r="325" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="F325" s="7"/>
@@ -4344,7 +4354,7 @@
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
     </row>
-    <row r="326" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="F326" s="7"/>
@@ -4352,7 +4362,7 @@
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
     </row>
-    <row r="327" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="F327" s="7"/>
@@ -4360,7 +4370,7 @@
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
     </row>
-    <row r="328" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="F328" s="7"/>
@@ -4368,7 +4378,7 @@
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
     </row>
-    <row r="329" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="F329" s="7"/>
@@ -4376,7 +4386,7 @@
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
     </row>
-    <row r="330" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="F330" s="7"/>
@@ -4384,7 +4394,7 @@
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
     </row>
-    <row r="331" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="F331" s="7"/>
@@ -4394,17 +4404,24 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="C2:G4"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B25:C25"/>
@@ -4413,24 +4430,17 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="C2:G4"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19" right="0" top="0.51" bottom="0.65" header="0.18" footer="0"/>
